--- a/glkx/Q.xlsx
+++ b/glkx/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="882" activeTab="1"/>
+    <workbookView windowWidth="13725" windowHeight="12540" tabRatio="882"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="724">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -34,13 +34,19 @@
     <t>应把领导活动作为一门科学来研究</t>
   </si>
   <si>
-    <t>领导科学产生的条件</t>
-  </si>
-  <si>
-    <t>领导科学在我国兴起的条件</t>
-  </si>
-  <si>
-    <t>领导科学研究的对象</t>
+    <t>现在社会发展的特征（领导科学产生的条件）</t>
+  </si>
+  <si>
+    <t>领导科学在我国兴起的原因</t>
+  </si>
+  <si>
+    <t>领导科学</t>
+  </si>
+  <si>
+    <t>领导活动过程基本要素</t>
+  </si>
+  <si>
+    <t>领导科学的范围</t>
   </si>
   <si>
     <t>领导科学的特点</t>
@@ -52,30 +58,30 @@
     <t>学习领导学科的目的（意义）</t>
   </si>
   <si>
-    <t>建设中国特色的领导科学</t>
+    <t>如何建设中国特色的领导科学</t>
   </si>
   <si>
     <t>学习领导科学的方法</t>
   </si>
   <si>
+    <t>学习领导科学注重的方法</t>
+  </si>
+  <si>
     <t>领导的含义</t>
   </si>
   <si>
-    <t>领导的特征-领导认识的特征</t>
-  </si>
-  <si>
-    <t>原则性，超前，综合性，创造性，系统性</t>
-  </si>
-  <si>
-    <t>领导的特征-领导实践的特征</t>
-  </si>
-  <si>
-    <t>权威性，目标性，依附性，服务性，组织，协调，超脱</t>
-  </si>
-  <si>
     <t>领导的属性</t>
   </si>
   <si>
+    <t>社会属性决定着领导的本质</t>
+  </si>
+  <si>
+    <t>领导认识的特征</t>
+  </si>
+  <si>
+    <t>领导实践的特征</t>
+  </si>
+  <si>
     <t>历史进程为标准</t>
   </si>
   <si>
@@ -106,31 +112,28 @@
     <t>领导的基础</t>
   </si>
   <si>
-    <t>领导的社会属性决定领导的本质</t>
-  </si>
-  <si>
     <t>社会主义领导的本质属性</t>
   </si>
   <si>
     <t>领导者的含义</t>
   </si>
   <si>
+    <t>领导者的本质</t>
+  </si>
+  <si>
     <t>领导者的特征</t>
   </si>
   <si>
-    <t>领导者的本质</t>
-  </si>
-  <si>
     <t>领导者的地位与作用</t>
   </si>
   <si>
     <t>被领导者的含义</t>
   </si>
   <si>
+    <t>被领导者的本质</t>
+  </si>
+  <si>
     <t>被领导者的特征</t>
-  </si>
-  <si>
-    <t>被领导者的本质</t>
   </si>
   <si>
     <t>被领导者的地位与作用</t>
@@ -2202,12 +2205,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2229,12 +2232,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -2247,24 +2244,132 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2279,21 +2384,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2302,106 +2392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2416,7 +2407,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2428,91 +2509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,13 +2527,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2548,19 +2557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,19 +2575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2596,7 +2587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2607,41 +2598,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2679,7 +2635,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2702,8 +2658,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2715,10 +2706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2727,137 +2718,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2877,12 +2868,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3233,65 +3218,80 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="8"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3316,191 +3316,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>541</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>544</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="A3" s="3" t="s">
         <v>546</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="A4" s="3" t="s">
         <v>548</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>550</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="A7" s="3" t="s">
         <v>552</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>553</v>
+      <c r="A8" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="A9" s="3" t="s">
         <v>556</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="A10" s="3" t="s">
         <v>558</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="A11" s="3" t="s">
         <v>560</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="A12" s="3" t="s">
         <v>562</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>563</v>
+      <c r="A13" s="4" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="A15" s="3" t="s">
         <v>565</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="A16" s="3" t="s">
         <v>567</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="A17" s="3" t="s">
         <v>569</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>571</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="A19" s="3" t="s">
         <v>573</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="A20" s="3" t="s">
         <v>575</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="A21" s="3" t="s">
         <v>577</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
-        <v>578</v>
+      <c r="A22" s="4" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
-        <v>579</v>
+      <c r="A23" s="4" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
-        <v>580</v>
+      <c r="A24" s="4" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
-        <v>581</v>
+      <c r="A25" s="4" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="A26" s="3" t="s">
         <v>583</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
-        <v>584</v>
+      <c r="A27" s="4" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -3524,249 +3524,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="3" t="s">
         <v>586</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>588</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="3" t="s">
         <v>590</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="3" t="s">
         <v>592</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>594</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="A8" s="3" t="s">
         <v>598</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="3" t="s">
         <v>600</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="A10" s="3" t="s">
         <v>602</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="A11" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>605</v>
       </c>
+      <c r="M11" s="1" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="A12" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>608</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="A13" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="M14" s="3" t="s">
+      <c r="M13" s="1" t="s">
         <v>612</v>
       </c>
     </row>
+    <row r="14" spans="13:13">
+      <c r="M14" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="A15" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>615</v>
       </c>
+      <c r="M15" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="A16" s="3" t="s">
         <v>617</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="A17" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>620</v>
       </c>
+      <c r="I17" s="1" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>622</v>
       </c>
+      <c r="I18" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="A19" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>625</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="A20" s="3" t="s">
         <v>627</v>
       </c>
+      <c r="I20" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="A21" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>630</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="A22" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>633</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="I23" s="3" t="s">
         <v>635</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>637</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D26" s="3" t="s">
         <v>639</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D27" s="3" t="s">
         <v>641</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="D28" s="3" t="s">
         <v>643</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="3" t="s">
-        <v>644</v>
+      <c r="D29" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="3" t="s">
-        <v>645</v>
+      <c r="D30" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="3" t="s">
-        <v>646</v>
+      <c r="D31" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -3791,34 +3789,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D1" s="3" t="s">
         <v>648</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>650</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>652</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>654</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3826,57 +3824,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>656</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>358</v>
+        <v>658</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D8" s="3" t="s">
         <v>659</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D9" s="3" t="s">
         <v>661</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D10" s="3" t="s">
         <v>663</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3884,18 +3882,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="D15" s="3" t="s">
         <v>668</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D16" s="3" t="s">
         <v>670</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -3920,206 +3918,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>672</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>674</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>676</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>678</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>680</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>682</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="E8" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>685</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="E9" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>688</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E10" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>691</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="E11" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>694</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="E12" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>697</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="K13" s="3" t="s">
         <v>699</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="E14" s="3" t="s">
         <v>701</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="E15" s="3" t="s">
         <v>703</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="E17" s="3" t="s">
         <v>705</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="E18" s="3" t="s">
         <v>707</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E19" s="3" t="s">
         <v>709</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="E20" s="3" t="s">
         <v>711</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="E21" s="3" t="s">
         <v>713</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="A23" s="3" t="s">
         <v>715</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="A24" s="3" t="s">
         <v>717</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="A25" s="3" t="s">
         <v>719</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="A26" s="3" t="s">
         <v>721</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
-        <v>722</v>
+      <c r="A27" s="4" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -4131,151 +4129,145 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="8"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="5" s="5" customFormat="1" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+    <row r="7" s="5" customFormat="1" spans="1:1">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+    <row r="8" s="5" customFormat="1" spans="1:1">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
+    <row r="9" s="5" customFormat="1" spans="1:1">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
+    <row r="10" s="5" customFormat="1" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="8" t="s">
+    <row r="11" s="5" customFormat="1" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
+    <row r="12" s="5" customFormat="1" spans="1:1">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="8" t="s">
+    <row r="13" s="5" customFormat="1" spans="1:1">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
+    <row r="14" s="5" customFormat="1" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="8" t="s">
+    <row r="15" s="5" customFormat="1" spans="1:1">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="8" t="s">
+    <row r="17" s="5" customFormat="1" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
+    <row r="18" s="5" customFormat="1" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
+    <row r="19" s="5" customFormat="1" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
+    <row r="20" s="5" customFormat="1" spans="1:1">
+      <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
+    <row r="21" s="5" customFormat="1" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
+    <row r="22" s="5" customFormat="1" spans="1:1">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
+    <row r="24" s="5" customFormat="1" spans="1:1">
+      <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
+    <row r="25" s="5" customFormat="1" spans="1:1">
+      <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="8" t="s">
+    <row r="26" s="5" customFormat="1" spans="1:1">
+      <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
+    <row r="27" s="5" customFormat="1" spans="1:1">
+      <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+    <row r="28" s="5" customFormat="1" spans="1:1">
+      <c r="A28" s="6" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="1" spans="1:1">
+      <c r="A29" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4300,131 +4292,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>38</v>
+      <c r="A1" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
+      <c r="A2" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
-        <v>47</v>
+      <c r="A3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>51</v>
+      <c r="A4" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>54</v>
+      <c r="A5" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
-        <v>57</v>
+      <c r="A6" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
-        <v>60</v>
+      <c r="A7" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="6:6">
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="6:6">
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4449,308 +4441,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="7" t="s">
-        <v>72</v>
+      <c r="A1" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
-        <v>75</v>
+      <c r="A2" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>78</v>
+      <c r="A3" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
-        <v>80</v>
+      <c r="A4" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="7" t="s">
-        <v>102</v>
+      <c r="A12" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>106</v>
+      <c r="A13" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>109</v>
+      <c r="A14" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="7" t="s">
-        <v>112</v>
+      <c r="A15" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="7" t="s">
-        <v>117</v>
+      <c r="A16" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="13:15">
       <c r="M17" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="7" t="s">
-        <v>122</v>
+      <c r="A18" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="7" t="s">
-        <v>126</v>
+      <c r="A19" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="7" t="s">
-        <v>130</v>
+      <c r="A20" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
-        <v>133</v>
+      <c r="A21" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="7" t="s">
-        <v>134</v>
+      <c r="A22" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="7" t="s">
-        <v>139</v>
+      <c r="A23" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="7" t="s">
-        <v>144</v>
+      <c r="A24" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="6:15">
       <c r="F25" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4775,358 +4767,358 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>155</v>
+      <c r="A2" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7" t="s">
-        <v>157</v>
+      <c r="A3" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>163</v>
+      <c r="A4" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>169</v>
+      <c r="A5" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
-        <v>171</v>
+      <c r="A6" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>173</v>
+      <c r="A7" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
-        <v>175</v>
+      <c r="A8" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7" t="s">
-        <v>178</v>
+      <c r="A11" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7" t="s">
-        <v>183</v>
+      <c r="A12" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7" t="s">
-        <v>186</v>
+      <c r="A13" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7" t="s">
-        <v>189</v>
+      <c r="A14" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7" t="s">
-        <v>192</v>
+      <c r="A15" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7" t="s">
-        <v>195</v>
+      <c r="A16" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>198</v>
+      <c r="A17" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>200</v>
+      <c r="A18" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
-        <v>202</v>
+      <c r="A19" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7" t="s">
-        <v>203</v>
+      <c r="A20" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
-        <v>217</v>
+      <c r="A27" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="7" t="s">
-        <v>219</v>
+      <c r="A28" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="7" t="s">
-        <v>223</v>
+      <c r="A29" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="7" t="s">
-        <v>227</v>
+      <c r="A30" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="7" t="s">
-        <v>232</v>
+      <c r="A31" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="7" t="s">
-        <v>237</v>
+      <c r="A32" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="7" t="s">
-        <v>241</v>
+      <c r="A33" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="7" t="s">
-        <v>244</v>
+      <c r="A34" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="6" t="s">
-        <v>246</v>
+      <c r="A35" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5152,275 +5144,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="7" t="s">
-        <v>248</v>
+      <c r="A1" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="7" t="s">
-        <v>254</v>
+      <c r="A2" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="7" t="s">
-        <v>260</v>
+      <c r="A3" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>267</v>
+      <c r="A4" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="7" t="s">
-        <v>271</v>
+      <c r="A6" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7" t="s">
-        <v>275</v>
+      <c r="A7" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
-        <v>279</v>
+      <c r="A8" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
-        <v>282</v>
+      <c r="A9" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>284</v>
+      <c r="A10" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
-        <v>288</v>
+      <c r="A11" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
-        <v>289</v>
+      <c r="A12" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>290</v>
+      <c r="A14" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>292</v>
+      <c r="A15" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
-        <v>294</v>
+      <c r="A16" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>296</v>
+      <c r="A17" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>298</v>
+      <c r="A18" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>300</v>
+      <c r="A19" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>302</v>
+      <c r="A20" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
-        <v>304</v>
+      <c r="A21" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
-        <v>305</v>
+      <c r="A22" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6" t="s">
-        <v>308</v>
+      <c r="A23" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5444,242 +5436,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>320</v>
+      <c r="A1" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="4" t="s">
-        <v>322</v>
+      <c r="A2" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>324</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="4" t="s">
-        <v>325</v>
+      <c r="A3" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="N3" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="4" spans="14:14">
-      <c r="N4" s="3" t="s">
-        <v>328</v>
+      <c r="N4" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="A5" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="N7" s="3" t="s">
+      <c r="A7" s="3" t="s">
         <v>338</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="A8" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>342</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="A9" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="A11" s="3" t="s">
         <v>345</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="A12" s="3" t="s">
         <v>347</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="A13" s="3" t="s">
         <v>349</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="A14" s="3" t="s">
         <v>351</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="A15" s="3" t="s">
         <v>353</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="A16" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="E17" s="3"/>
+      <c r="E16" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="I18" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="M18" s="1" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="A19" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="I19" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="M19" s="1" t="s">
         <v>363</v>
       </c>
+      <c r="N19" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="A20" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="3" t="s">
+      <c r="I20" s="1" t="s">
         <v>367</v>
       </c>
+      <c r="M20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>370</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="22" spans="5:9">
-      <c r="E22" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="E23" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>374</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="24" spans="5:9">
-      <c r="E24" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="I24" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="25" spans="5:9">
-      <c r="E25" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>378</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -5703,382 +5694,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>382</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>235</v>
+      <c r="E2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="A3" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>388</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="A4" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>392</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="A5" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>395</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>398</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="A7" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>401</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="A8" s="3" t="s">
         <v>403</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="A9" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="A10" s="3" t="s">
         <v>408</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="A12" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4" t="s">
+      <c r="K12" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="K13" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="A14" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="O14" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="1" t="s">
         <v>418</v>
       </c>
+      <c r="S14" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="A15" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="O15" s="1" t="s">
         <v>422</v>
       </c>
+      <c r="S15" s="1" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="A16" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="O16" s="1" t="s">
         <v>426</v>
       </c>
+      <c r="S16" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="A17" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="S17" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>432</v>
       </c>
+      <c r="O18" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="A19" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="O19" s="1" t="s">
         <v>436</v>
       </c>
+      <c r="S19" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="O20" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="S20" s="3" t="s">
+      <c r="A20" s="3"/>
+      <c r="O20" s="1" t="s">
         <v>438</v>
       </c>
+      <c r="S20" s="1" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="11:18">
+      <c r="K26" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="26" spans="11:18">
-      <c r="K26" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="A29" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>473</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>474</v>
+      <c r="A30" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="3" t="s">
-        <v>475</v>
+      <c r="E31" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="3" t="s">
-        <v>476</v>
+      <c r="E32" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="3" t="s">
-        <v>477</v>
+      <c r="E33" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="3" t="s">
-        <v>478</v>
+      <c r="E34" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -6102,241 +6090,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="A1" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>481</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>486</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="A3" s="3" t="s">
         <v>488</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="4" spans="13:13">
-      <c r="M4" s="3" t="s">
-        <v>489</v>
+      <c r="M4" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="A5" s="3" t="s">
         <v>491</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>493</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="A7" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="F8" s="3"/>
+      <c r="F7" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="A9" s="3" t="s">
         <v>497</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="A10" s="3" t="s">
         <v>499</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="A11" s="3" t="s">
         <v>501</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="A12" s="3" t="s">
         <v>503</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="A13" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>506</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="A14" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="F14" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>509</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="A15" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>513</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="K16" s="1" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>519</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>522</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="A19" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>525</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="A20" s="3" t="s">
         <v>527</v>
       </c>
+      <c r="K20" s="1" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="A21" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>530</v>
       </c>
+      <c r="K21" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="A22" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>533</v>
       </c>
+      <c r="H22" s="1" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>536</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="24" spans="6:8">
-      <c r="F24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>537</v>
+      <c r="F24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="8:8">
-      <c r="H25" s="3" t="s">
-        <v>538</v>
+      <c r="H25" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/Q.xlsx
+++ b/glkx/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12540" tabRatio="882"/>
+    <workbookView windowWidth="24225" windowHeight="12690" tabRatio="882" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="733">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -148,988 +148,1015 @@
     <t>领导职能的含义</t>
   </si>
   <si>
-    <t>是领导职责和社会功能，是本质的具体表现</t>
+    <t>就是领导的【职责】和【社会功能】，他是领导【本质】的【具体表现】</t>
+  </si>
+  <si>
+    <t>领导职能在领导活动中的地位</t>
+  </si>
+  <si>
+    <t>领导职能是【确定合理的组织机构】，【实现领导科学化】的一个【重要标志】</t>
+  </si>
+  <si>
+    <t>领导职能是【领导活动科学化】的依据</t>
+  </si>
+  <si>
+    <t>领导职能的实现情况是【检验】【领导活动结束】的依据</t>
+  </si>
+  <si>
+    <t>领导的一般职能</t>
+  </si>
+  <si>
+    <t>引导（为群众引路导航，正确的规划目标，提出任务，实现方法，是基本职能）</t>
+  </si>
+  <si>
+    <t>指挥，（运用组织权责，推动下属为实现目标努力，一般采用命令，说服，示范）</t>
+  </si>
+  <si>
+    <t>组织（按照目标，合理设置机构，简历体质，分配权力，使用人员）</t>
+  </si>
+  <si>
+    <t>协调（领导的系统同外部环境之间，为了达到目标相互配合）</t>
+  </si>
+  <si>
+    <t>监督（检查规划目标任务的执行情况，及时发现问题，纠正偏差）</t>
+  </si>
+  <si>
+    <t>教育（对广大群众进行宣传，动员，培养，训练，从各方面提高他们的素质，改正错误）</t>
+  </si>
+  <si>
+    <t>当代领导的基本职能</t>
+  </si>
+  <si>
+    <t>科学决策（决策的正确与否直接关系到领导工作的成功失败，社会主义市场经济条件下，决策需要科学化）</t>
+  </si>
+  <si>
+    <t>选才用人</t>
+  </si>
+  <si>
+    <t>思想政治工作（以人为对象，解决人的思想观念，思想认识，政治立场问题，从而提高人们认识世界和改造世界的能力）</t>
+  </si>
+  <si>
+    <t>领导用人必须注意</t>
+  </si>
+  <si>
+    <t>能级，能质对应（能力和素质要对应）</t>
+  </si>
+  <si>
+    <t>优势定位（把人才安置在有利于发挥其优势的岗位上）</t>
+  </si>
+  <si>
+    <t>结构优化（不同人才配置得当）</t>
+  </si>
+  <si>
+    <t>思想政治工作正确处理要素之间的关系要做到</t>
+  </si>
+  <si>
+    <t>内容和方法必须适应被教育者的思想发展变化规律</t>
+  </si>
+  <si>
+    <t>依靠群众力量做好思想政治工作</t>
+  </si>
+  <si>
+    <t>教育者必须先受教育</t>
+  </si>
+  <si>
+    <t>领导的总原则</t>
+  </si>
+  <si>
+    <t>领导者在进行领导活动的过程中必须坚持和遵循的【标准和法则】，</t>
+  </si>
+  <si>
+    <t>它是领导职能的根本途径，同时又是领导原理与理论在不同环境下的具体体现</t>
+  </si>
+  <si>
+    <t>领导原则根据实际需要可以分为</t>
+  </si>
+  <si>
+    <t>总原则</t>
+  </si>
+  <si>
+    <t>基本原则</t>
+  </si>
+  <si>
+    <t>具体原则</t>
+  </si>
+  <si>
+    <t>是指在我国领导实际情况中那些根本性和综合性的原则</t>
+  </si>
+  <si>
+    <t>总原则包括</t>
+  </si>
+  <si>
+    <t>党的基本路线原则（一个中心，两个基本点）</t>
+  </si>
+  <si>
+    <t>实事求是原则（）</t>
+  </si>
+  <si>
+    <t>民主集中制原则（民主基础上和在集中指导下的民主相结合）</t>
+  </si>
+  <si>
+    <t>群众路线原则（从群众中来，到群众中去）</t>
+  </si>
+  <si>
+    <t>民主集中制原则基本内容</t>
+  </si>
+  <si>
+    <t>个人服从组织，少数服从多数，下级服从上级，全党服从中央</t>
+  </si>
+  <si>
+    <t>领导的基本原则</t>
+  </si>
+  <si>
+    <t>领导观念的基本内涵</t>
+  </si>
+  <si>
+    <t>领导对领导活动中的规律性的本质认识和反应</t>
+  </si>
+  <si>
+    <t>知道领导者思维活动，制约思维活动的过程和结果</t>
+  </si>
+  <si>
+    <t>现代领导观念的基本特征</t>
+  </si>
+  <si>
+    <t>以马列主义，毛泽东思想坚持一切从实际出发的政治立场</t>
+  </si>
+  <si>
+    <t>决定领导者的领导方式，影响成败</t>
+  </si>
+  <si>
+    <t>领导观念的重要作用</t>
+  </si>
+  <si>
+    <t>坚持继承优良传统，体现时代精神，抛弃就的观念，树立新华年</t>
+  </si>
+  <si>
+    <t>政治观念的基本内涵</t>
+  </si>
+  <si>
+    <t>坚持中国民族特色，建设中国特色社会主义</t>
+  </si>
+  <si>
+    <t>领导者对政治本质的认识和看法</t>
+  </si>
+  <si>
+    <t>人本观念的基本内涵</t>
+  </si>
+  <si>
+    <t>坚持以人为本，发展需要人民，最终是为了人的全面发展</t>
+  </si>
+  <si>
+    <t>权力观念的基本内涵</t>
+  </si>
+  <si>
+    <t>把个人意志强加在其他人行为上的能力</t>
+  </si>
+  <si>
+    <t>市场经济的需要</t>
+  </si>
+  <si>
+    <t>领导工作中主要矛盾决定的</t>
+  </si>
+  <si>
+    <t>法制观念的基本内涵</t>
+  </si>
+  <si>
+    <t>围绕领导权和领导职能锁形成的依法全和依法领导的思维方式</t>
+  </si>
+  <si>
+    <t>党的基本路线</t>
+  </si>
+  <si>
+    <t>社会主义社会对领导的本质要求决定的</t>
+  </si>
+  <si>
+    <t>市场经济观念的基本内涵</t>
+  </si>
+  <si>
+    <t>领导者对市场经济的认识</t>
+  </si>
+  <si>
+    <t>密切党群关系的需要</t>
+  </si>
+  <si>
+    <t>改革创新观念的基本内涵</t>
+  </si>
+  <si>
+    <t>对改革创新的总体认识和看法</t>
+  </si>
+  <si>
+    <t>坚持党性质和宗旨的需要</t>
+  </si>
+  <si>
+    <t>权力是领导者执行领导活动的基本和前提</t>
+  </si>
+  <si>
+    <t>对政治本质的认识和看法</t>
+  </si>
+  <si>
+    <t>对外工作的需要</t>
+  </si>
+  <si>
+    <t>没有权力领导者无法完成使命</t>
+  </si>
+  <si>
+    <t>领导者树立政治观念的必要性</t>
+  </si>
+  <si>
+    <t>是依法治国的前提条件</t>
+  </si>
+  <si>
+    <t>科学发展</t>
+  </si>
+  <si>
+    <t>必须要有决策权和用人权</t>
+  </si>
+  <si>
+    <t>领导者树立人本观念的必要性</t>
+  </si>
+  <si>
+    <t>是依法行政的首要条件</t>
+  </si>
+  <si>
+    <t>时代变化的要求</t>
+  </si>
+  <si>
+    <t>领导者树立权力观念的必要性</t>
+  </si>
+  <si>
+    <t>是依法政府必要条件</t>
+  </si>
+  <si>
+    <t>社会主义现代化建设的要求</t>
+  </si>
+  <si>
+    <t>领导者树立法治观念的必要性</t>
+  </si>
+  <si>
+    <t>保障人权的需要</t>
+  </si>
+  <si>
+    <t>保障事业发展的要求</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+  </si>
+  <si>
+    <t>权力内容</t>
+  </si>
+  <si>
+    <t>领导者树立改革创新观念的必要性</t>
+  </si>
+  <si>
+    <t>先人后事</t>
+  </si>
+  <si>
+    <t>权力来源</t>
+  </si>
+  <si>
+    <t>坚持人才原则</t>
+  </si>
+  <si>
+    <t>权责关系的</t>
+  </si>
+  <si>
+    <t>领导者树立正确的政治观念的基本要求</t>
+  </si>
+  <si>
+    <t>正确的政治方向，最终实现共产主义</t>
+  </si>
+  <si>
+    <t>人尽其才</t>
+  </si>
+  <si>
+    <t>权力监督</t>
+  </si>
+  <si>
+    <t>领导者树立人本观念的基本要求</t>
+  </si>
+  <si>
+    <t>正确的政治立场，为人民服务</t>
+  </si>
+  <si>
+    <t>人才竞争</t>
+  </si>
+  <si>
+    <t>权力行使的</t>
+  </si>
+  <si>
+    <t>领导者树立正确的权利观念的基本要求</t>
+  </si>
+  <si>
+    <t>正确的政治观点，运用马列毛，用科学和谐的理论，通灵党和国家各项工作</t>
+  </si>
+  <si>
+    <t>人文关怀</t>
+  </si>
+  <si>
+    <t>领导者树立法治观念的基本要求</t>
+  </si>
+  <si>
+    <t>领导者树立现代市场经济观念的基本要求</t>
+  </si>
+  <si>
+    <t>法律至上</t>
+  </si>
+  <si>
+    <t>人情了解市场经济体制的必然性</t>
+  </si>
+  <si>
+    <t>要认识改革创新的性质和目的</t>
+  </si>
+  <si>
+    <t>什么是政绩</t>
+  </si>
+  <si>
+    <t>领导者树立科学的改革创新观念的基本要求</t>
+  </si>
+  <si>
+    <t>人人平等</t>
+  </si>
+  <si>
+    <t>了解基本规律</t>
+  </si>
+  <si>
+    <t>要明确改革创新的价值</t>
+  </si>
+  <si>
+    <t>为谁创政绩</t>
+  </si>
+  <si>
+    <t>领导者树立科学的政绩观念的基本要求</t>
+  </si>
+  <si>
+    <t>人权保障</t>
+  </si>
+  <si>
+    <t>了解特征</t>
+  </si>
+  <si>
+    <t>坚持改革创新的立场</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>依法用权</t>
+  </si>
+  <si>
+    <t>完善目标</t>
+  </si>
+  <si>
+    <t>保持解放思想的思维方式</t>
+  </si>
+  <si>
+    <t>怎么创造政绩</t>
+  </si>
+  <si>
+    <t>选择合理的改革方式</t>
+  </si>
+  <si>
+    <t>决策及其在领导工作中的地位：</t>
+  </si>
+  <si>
+    <t>决策的含义</t>
+  </si>
+  <si>
+    <t>做出的决定，是决策做出的决定</t>
+  </si>
+  <si>
+    <t>决策的构成要素</t>
+  </si>
+  <si>
+    <t>决策者</t>
+  </si>
+  <si>
+    <t>决策目标</t>
+  </si>
+  <si>
+    <t>决策环境</t>
+  </si>
+  <si>
+    <t>决策结果</t>
+  </si>
+  <si>
+    <t>决策备选方案</t>
+  </si>
+  <si>
+    <t>决策的基本特征</t>
+  </si>
+  <si>
+    <t>针对性</t>
+  </si>
+  <si>
+    <t>目的性</t>
+  </si>
+  <si>
+    <t>实施性</t>
+  </si>
+  <si>
+    <t>选择性</t>
+  </si>
+  <si>
+    <t>优化型</t>
+  </si>
+  <si>
+    <t>经验决策特点</t>
+  </si>
+  <si>
+    <t>是个人的决策活动，主要依靠决策者个人的素质做出决策，以经验为基础，信息量有限</t>
+  </si>
+  <si>
+    <t>科学决策的特点</t>
+  </si>
+  <si>
+    <t>注重集体共同决策，共同完成决策活动，建立在科学基础上，运用广泛的科学技术方法进行分析，确保决策的可靠性</t>
+  </si>
+  <si>
+    <t>决策的分类</t>
+  </si>
+  <si>
+    <t>战略，战术，程序化，非程序化，高中基层，最快，最优，确定性不确定性风险性</t>
+  </si>
+  <si>
+    <t>决策的模式</t>
+  </si>
+  <si>
+    <t>理性，渐进，综合</t>
+  </si>
+  <si>
+    <t>科学决策的原则，程序，方法：</t>
+  </si>
+  <si>
+    <t>德尔菲法特点</t>
+  </si>
+  <si>
+    <t>匿名</t>
+  </si>
+  <si>
+    <t>多伦反馈</t>
+  </si>
+  <si>
+    <t>最终结论的统一性</t>
+  </si>
+  <si>
+    <t>组成专家小组</t>
+  </si>
+  <si>
+    <t>头脑风暴法的含义</t>
+  </si>
+  <si>
+    <t>一定数量的专家，用创造性的思维对决策对象的未来做出判断性的方法</t>
+  </si>
+  <si>
+    <t>提供问题和要求，并提供相关信息和文件</t>
+  </si>
+  <si>
+    <t>试验决策法的含义</t>
+  </si>
+  <si>
+    <t>新出现的问题，无法通过经验，不能通过备选方案，无法选择最优方案的时候使用的决策</t>
+  </si>
+  <si>
+    <t>专家根据提供的资料给出预测结果</t>
+  </si>
+  <si>
+    <t>科学决策的基本标准</t>
+  </si>
+  <si>
+    <t>要有决策目标，决策方案可以实现目标，实现目标的成本低，没有副作用</t>
+  </si>
+  <si>
+    <t>手机专家预测结果，绘制图表分发给专家，进行对比和修改</t>
+  </si>
+  <si>
+    <t>科学决策的基本原则</t>
+  </si>
+  <si>
+    <t>客观性，信息性，程序性，选择性，可行性预测性，外脑性</t>
+  </si>
+  <si>
+    <t>手机修改后的结果，再次分发给专家，做二次修改</t>
+  </si>
+  <si>
+    <t>追踪决策的特征</t>
+  </si>
+  <si>
+    <t>回溯性，非零起点，双重优化，心灵效应</t>
+  </si>
+  <si>
+    <t>最后对专家的意见做综合评价</t>
+  </si>
+  <si>
+    <t>头脑风暴法必须遵循的原则</t>
+  </si>
+  <si>
+    <t>自由畅言，强调数量，禁止评论，相互借鉴</t>
+  </si>
+  <si>
+    <t>科学决策的程序</t>
+  </si>
+  <si>
+    <t>明确问题，确定目标，集思广益，拟定方案，分析评估，选择防范，实施方案，反馈修正</t>
+  </si>
+  <si>
+    <t>德尔菲法的实施步骤</t>
+  </si>
+  <si>
+    <t>决策树法的步骤</t>
+  </si>
+  <si>
+    <t>根据决策问题绘制决策树，计算概率值，计算收益指，提出最优方案</t>
+  </si>
+  <si>
+    <t>决策中枢系统为核心</t>
+  </si>
+  <si>
+    <t>决策信息性系统外围</t>
+  </si>
+  <si>
+    <t>决策中的领导者：</t>
+  </si>
+  <si>
+    <t>决策智囊系统两者之间</t>
+  </si>
+  <si>
+    <t>决策体质的内涵</t>
+  </si>
+  <si>
+    <t>承担决策的结构和人员组成的组织形式的体质</t>
+  </si>
+  <si>
+    <t>决策体质的构成</t>
+  </si>
+  <si>
+    <t>具有决策权的领导集团共同作出的决策</t>
+  </si>
+  <si>
+    <t>集体抉择含义</t>
+  </si>
+  <si>
+    <t>决策信息系统</t>
+  </si>
+  <si>
+    <t>个人决策的含义</t>
+  </si>
+  <si>
+    <t>具有决策权的个人作出的决策</t>
+  </si>
+  <si>
+    <t>危机决策的内涵</t>
+  </si>
+  <si>
+    <t>非程序化的决策，一般为从未见过的，难以决策的，环境变化无常的</t>
+  </si>
+  <si>
+    <t>现代决策体质系统</t>
+  </si>
+  <si>
+    <t>决策目标的指定</t>
+  </si>
+  <si>
+    <t>时效性</t>
+  </si>
+  <si>
+    <t>领导保证智囊团独立研究，不能干涉，只让智能团论证自己的正确性</t>
+  </si>
+  <si>
+    <t>领导者在决策活动中的主要职责</t>
+  </si>
+  <si>
+    <t>方案的指定</t>
+  </si>
+  <si>
+    <t>民主性</t>
+  </si>
+  <si>
+    <t>领导者不能被智囊团替换，不能让智囊团为领导者作出决定</t>
+  </si>
+  <si>
+    <t>集体决策需要注意的问题，对领导决策的基本要求</t>
+  </si>
+  <si>
+    <t>快速果断</t>
+  </si>
+  <si>
+    <t>方案的选择</t>
+  </si>
+  <si>
+    <t>灵活性</t>
+  </si>
+  <si>
+    <t>决策的问题进行科学预测</t>
+  </si>
+  <si>
+    <t>领导者与智囊团的关系</t>
+  </si>
+  <si>
+    <t>高效准确</t>
+  </si>
+  <si>
+    <t>方案的试试</t>
+  </si>
+  <si>
+    <t>系统性</t>
+  </si>
+  <si>
+    <t>觉得的方案进行设计和分析</t>
+  </si>
+  <si>
+    <t>领导者危机决策的基本要求</t>
+  </si>
+  <si>
+    <t>非程序性</t>
+  </si>
+  <si>
+    <t>合法性</t>
+  </si>
+  <si>
+    <t>觉得问题进行咨询</t>
+  </si>
+  <si>
+    <t>领导者在决策过程中发挥智囊团的作用</t>
+  </si>
+  <si>
+    <t>主动积极</t>
+  </si>
+  <si>
+    <t>决策实施情况进行反馈</t>
+  </si>
+  <si>
+    <t>领导者进行危机决策的方法</t>
+  </si>
+  <si>
+    <t>迅速果断</t>
+  </si>
+  <si>
+    <t>领导者科学决策的原则和方法</t>
+  </si>
+  <si>
+    <t>富有创意灵活</t>
+  </si>
+  <si>
+    <t>人才的特点</t>
+  </si>
+  <si>
+    <t>社会性</t>
+  </si>
+  <si>
+    <t>工作性质</t>
+  </si>
+  <si>
+    <t>理论</t>
+  </si>
+  <si>
+    <t>实践</t>
+  </si>
+  <si>
+    <t>人才是最宝贵的财富，是创造物质财富，精神财富的推动者</t>
+  </si>
+  <si>
+    <t>人才的类型</t>
+  </si>
+  <si>
+    <t>专业性</t>
+  </si>
+  <si>
+    <t>自身素质</t>
+  </si>
+  <si>
+    <t>发现型</t>
+  </si>
+  <si>
+    <t>再现型</t>
+  </si>
+  <si>
+    <t>人才是事业之本，正确的选才，推动社会金币</t>
+  </si>
+  <si>
+    <t>衡量人才的标准</t>
+  </si>
+  <si>
+    <t>衡量是否属于人才的指标和准则</t>
+  </si>
+  <si>
+    <t>创造性</t>
+  </si>
+  <si>
+    <t>发挥作用不同</t>
+  </si>
+  <si>
+    <t>组织型</t>
+  </si>
+  <si>
+    <t>操作型</t>
+  </si>
+  <si>
+    <t>人才是社会主义现代化建设的桥梁，选才，推动社会主义建设的关键</t>
+  </si>
+  <si>
+    <t>选材用人对于现代领导的重要意义</t>
+  </si>
+  <si>
+    <t>历史进步性</t>
+  </si>
+  <si>
+    <t>相对性</t>
+  </si>
+  <si>
+    <t>资历与能力的关系，避免论资排辈</t>
+  </si>
+  <si>
+    <t>选举制的含义</t>
+  </si>
+  <si>
+    <t>通过投票以选拔人才</t>
+  </si>
+  <si>
+    <t>察言观行相结合</t>
+  </si>
+  <si>
+    <t>知识分子与人才的关系，避免把两者等同起来</t>
+  </si>
+  <si>
+    <t>考选制的含义</t>
+  </si>
+  <si>
+    <t>通过考试选拔人才</t>
+  </si>
+  <si>
+    <t>考察历史和显示结合</t>
+  </si>
+  <si>
+    <t>学历和能力的关系，要实践与文化相结合</t>
+  </si>
+  <si>
+    <t>荐举制的含义</t>
+  </si>
+  <si>
+    <t>通过推荐选拔人才</t>
+  </si>
+  <si>
+    <t>发现人才的长处与短处</t>
+  </si>
+  <si>
+    <t>人才选拔的基本原则</t>
+  </si>
+  <si>
+    <t>群众评论</t>
+  </si>
+  <si>
+    <t>人才选拔的制度</t>
+  </si>
+  <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>考选</t>
+  </si>
+  <si>
+    <t>推荐</t>
+  </si>
+  <si>
+    <t>领导者在选拔人才时必须正确处理的关系</t>
+  </si>
+  <si>
+    <t>领导者选拔人才的原则和方法</t>
+  </si>
+  <si>
+    <t>选任制的含义</t>
+  </si>
+  <si>
+    <t>通过群众依法投票的新鲜事选拔出来的人才的制度</t>
+  </si>
+  <si>
+    <t>委任制的含义</t>
+  </si>
+  <si>
+    <t>有任免权的领导按人事制度授予一定职位的制度</t>
+  </si>
+  <si>
+    <t>聘任制的含义</t>
+  </si>
+  <si>
+    <t>通过签署合同的方式照片人才的一种制度</t>
+  </si>
+  <si>
+    <t>考核制度的含义</t>
+  </si>
+  <si>
+    <t>对一定类型的员工的工作能力，工作绩效，工作态度，道德品质进行考核的一种制度</t>
+  </si>
+  <si>
+    <t>奖惩制度的含义</t>
+  </si>
+  <si>
+    <t>有突出成绩的给与物质奖励，有错误的惩处教育的一种制度</t>
+  </si>
+  <si>
+    <t>交流制度的含义</t>
+  </si>
+  <si>
+    <t>对于人才实行有计划的定期交流的一种制度</t>
+  </si>
+  <si>
+    <t>任期制度的含义</t>
+  </si>
+  <si>
+    <t>领导机关，事业单位中，某些职位员工工作时间有一定期限，任期满后，职权，责任自然取消</t>
+  </si>
+  <si>
+    <t>人才使用的基本原则</t>
+  </si>
+  <si>
+    <t>人才使用的主要制度</t>
+  </si>
+  <si>
+    <t>量才用人，只能相称</t>
+  </si>
+  <si>
+    <t>任免制度培养制度</t>
+  </si>
+  <si>
+    <t>领导者使用人才的基本原则和方法</t>
+  </si>
+  <si>
+    <t>扬长避短，各尽所能</t>
+  </si>
+  <si>
+    <t>考核制度奖惩制度</t>
+  </si>
+  <si>
+    <t>用人不疑，疑人不用</t>
+  </si>
+  <si>
+    <t>交流制度回避制度</t>
+  </si>
+  <si>
+    <t>合理搭配，整体效能</t>
+  </si>
+  <si>
+    <t>甚至制度辞职制度</t>
+  </si>
+  <si>
+    <t>五湖四海，宽以容才</t>
+  </si>
+  <si>
+    <t>任期制度，退休制度</t>
+  </si>
+  <si>
+    <t>合理流动，适材适所</t>
+  </si>
+  <si>
+    <t>爱护人才，关心帮助</t>
+  </si>
+  <si>
+    <t>重视培养，用养结合</t>
+  </si>
+  <si>
+    <t>思想政治工作的含义</t>
+  </si>
+  <si>
+    <t>思想工作就是人的工作，通过确立观念，立场，思想来提高工作效率</t>
+  </si>
+  <si>
+    <t>思想政治工作的对象</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>马克思主义基本理论</t>
+  </si>
+  <si>
+    <t>思想政治工作对领导工作的重要意义</t>
+  </si>
+  <si>
+    <t>领导者在领导工作中，提高人们的思想觉悟，调用积极性的一种手段</t>
+  </si>
+  <si>
+    <t>爱国主义教育</t>
+  </si>
+  <si>
+    <t>形式和任务教育</t>
+  </si>
+  <si>
+    <t>政治教育的含义</t>
+  </si>
+  <si>
+    <t>是指中国中国共产党基本路线和方正的教育，爱国主义教育，形势任务教育</t>
+  </si>
+  <si>
+    <t>民主与法治</t>
+  </si>
+  <si>
+    <t>公民素质教育的含义</t>
+  </si>
+  <si>
+    <t>思想</t>
+  </si>
+  <si>
+    <t>道德</t>
+  </si>
+  <si>
+    <t>法治</t>
+  </si>
+  <si>
+    <t>思想遇到的</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本内容</t>
+  </si>
+  <si>
+    <t>党的路线方正政策</t>
+  </si>
+  <si>
+    <t>政治教育的基本内容</t>
+  </si>
+  <si>
+    <t>爱国主义和社会主义教育</t>
+  </si>
+  <si>
+    <t>形式和任务的教育</t>
+  </si>
+  <si>
+    <t>基本路线政策与方针政策教育</t>
+  </si>
+  <si>
+    <t>公民素质教育的主要内容</t>
+  </si>
+  <si>
+    <t>说理教育法的含义</t>
+  </si>
+  <si>
+    <t>向思想教育对象，讲解有关理论和道理，以说理说服对方，转变思想的一种方式</t>
+  </si>
+  <si>
+    <t>情感交流法的含义</t>
+  </si>
+  <si>
+    <t>对教育对象，情感交流，以情感去感动对方，转变思想的一找那个方式</t>
+  </si>
+  <si>
+    <t>个别引导法的含义</t>
+  </si>
+  <si>
+    <t>对个别对象，采用各种方式，因时因地的各种方式进行思想教育工作</t>
+  </si>
+  <si>
+    <t>心里咨询法的含义</t>
+  </si>
+  <si>
+    <t>对对象用心理学的方法，认识到自己的的问题根源，挖掘潜力，提高自己的认知的一种方式</t>
+  </si>
+  <si>
+    <t>榜样示范法的含义</t>
+  </si>
+  <si>
+    <t>以先进人物的先进思想的一种方式来教育对方，提高对方思想觉悟的一种方式</t>
+  </si>
+  <si>
+    <t>自我教育法的含义</t>
+  </si>
+  <si>
+    <t>以自我学习，自我提高修养的一种方式不断完善自己的思想品德</t>
+  </si>
+  <si>
+    <t>思想政治工作的方针</t>
+  </si>
+  <si>
+    <t>坚持，疏导，疏通，引导</t>
+  </si>
+  <si>
+    <t>理论联系实际</t>
+  </si>
+  <si>
+    <t>疏导</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本原则</t>
+  </si>
+  <si>
+    <t>表扬和批评</t>
+  </si>
+  <si>
+    <t>疏通</t>
+  </si>
+  <si>
+    <t>集思广益，把心里话说出来</t>
+  </si>
+  <si>
+    <t>思想政治工作的方法</t>
+  </si>
+  <si>
+    <t>说理</t>
+  </si>
+  <si>
+    <t>精神奖励和物质奖励</t>
   </si>
   <si>
     <t>引到</t>
-  </si>
-  <si>
-    <t>科学决策</t>
-  </si>
-  <si>
-    <t>领导职能在领导活动中的地位</t>
-  </si>
-  <si>
-    <t>是确定组织机构的重要标志</t>
-  </si>
-  <si>
-    <t>指挥</t>
-  </si>
-  <si>
-    <t>选才用人</t>
-  </si>
-  <si>
-    <t>能技能职对应，优势定位，结构优化</t>
-  </si>
-  <si>
-    <t>领导的一般职能</t>
-  </si>
-  <si>
-    <t>是领导活动科学化的依据</t>
-  </si>
-  <si>
-    <t>组织</t>
-  </si>
-  <si>
-    <t>思想政治工作</t>
-  </si>
-  <si>
-    <t>当代领导的基本职能</t>
-  </si>
-  <si>
-    <t>是领导活动结束的依据</t>
-  </si>
-  <si>
-    <t>协调</t>
-  </si>
-  <si>
-    <t>领导原则的含义</t>
-  </si>
-  <si>
-    <t>在领导活动中所要坚持的标准和法则</t>
-  </si>
-  <si>
-    <t>教育</t>
-  </si>
-  <si>
-    <t>领导的总原则</t>
-  </si>
-  <si>
-    <t>总原则，基本原则，具体原则</t>
-  </si>
-  <si>
-    <t>监督</t>
-  </si>
-  <si>
-    <t>领导的基本原则</t>
-  </si>
-  <si>
-    <t>党的基本路线</t>
-  </si>
-  <si>
-    <t>统一领导原则</t>
-  </si>
-  <si>
-    <t>实事求是</t>
-  </si>
-  <si>
-    <t>分权原则</t>
-  </si>
-  <si>
-    <t>民主集中制</t>
-  </si>
-  <si>
-    <t>分层原则</t>
-  </si>
-  <si>
-    <t>群众路线原则</t>
-  </si>
-  <si>
-    <t>系统整体原则</t>
-  </si>
-  <si>
-    <t>权责一致原则</t>
-  </si>
-  <si>
-    <t>民主公开原则</t>
-  </si>
-  <si>
-    <t>集体，分工结合原则</t>
-  </si>
-  <si>
-    <t>领导观念的基本内涵</t>
-  </si>
-  <si>
-    <t>领导对领导活动中的规律性的本质认识和反应</t>
-  </si>
-  <si>
-    <t>知道领导者思维活动，制约思维活动的过程和结果</t>
-  </si>
-  <si>
-    <t>现代领导观念的基本特征</t>
-  </si>
-  <si>
-    <t>以马列主义，毛泽东思想坚持一切从实际出发的政治立场</t>
-  </si>
-  <si>
-    <t>决定领导者的领导方式，影响成败</t>
-  </si>
-  <si>
-    <t>领导观念的重要作用</t>
-  </si>
-  <si>
-    <t>坚持继承优良传统，体现时代精神，抛弃就的观念，树立新华年</t>
-  </si>
-  <si>
-    <t>政治观念的基本内涵</t>
-  </si>
-  <si>
-    <t>坚持中国民族特色，建设中国特色社会主义</t>
-  </si>
-  <si>
-    <t>领导者对政治本质的认识和看法</t>
-  </si>
-  <si>
-    <t>人本观念的基本内涵</t>
-  </si>
-  <si>
-    <t>坚持以人为本，发展需要人民，最终是为了人的全面发展</t>
-  </si>
-  <si>
-    <t>权力观念的基本内涵</t>
-  </si>
-  <si>
-    <t>把个人意志强加在其他人行为上的能力</t>
-  </si>
-  <si>
-    <t>市场经济的需要</t>
-  </si>
-  <si>
-    <t>领导工作中主要矛盾决定的</t>
-  </si>
-  <si>
-    <t>法制观念的基本内涵</t>
-  </si>
-  <si>
-    <t>围绕领导权和领导职能锁形成的依法全和依法领导的思维方式</t>
-  </si>
-  <si>
-    <t>社会主义社会对领导的本质要求决定的</t>
-  </si>
-  <si>
-    <t>市场经济观念的基本内涵</t>
-  </si>
-  <si>
-    <t>领导者对市场经济的认识</t>
-  </si>
-  <si>
-    <t>密切党群关系的需要</t>
-  </si>
-  <si>
-    <t>改革创新观念的基本内涵</t>
-  </si>
-  <si>
-    <t>对改革创新的总体认识和看法</t>
-  </si>
-  <si>
-    <t>坚持党性质和宗旨的需要</t>
-  </si>
-  <si>
-    <t>权力是领导者执行领导活动的基本和前提</t>
-  </si>
-  <si>
-    <t>对政治本质的认识和看法</t>
-  </si>
-  <si>
-    <t>对外工作的需要</t>
-  </si>
-  <si>
-    <t>没有权力领导者无法完成使命</t>
-  </si>
-  <si>
-    <t>领导者树立政治观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法治国的前提条件</t>
-  </si>
-  <si>
-    <t>科学发展</t>
-  </si>
-  <si>
-    <t>必须要有决策权和用人权</t>
-  </si>
-  <si>
-    <t>领导者树立人本观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法行政的首要条件</t>
-  </si>
-  <si>
-    <t>时代变化的要求</t>
-  </si>
-  <si>
-    <t>领导者树立权力观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法政府必要条件</t>
-  </si>
-  <si>
-    <t>社会主义现代化建设的要求</t>
-  </si>
-  <si>
-    <t>领导者树立法治观念的必要性</t>
-  </si>
-  <si>
-    <t>保障人权的需要</t>
-  </si>
-  <si>
-    <t>保障事业发展的要求</t>
-  </si>
-  <si>
-    <t>为人民服务</t>
-  </si>
-  <si>
-    <t>权力内容</t>
-  </si>
-  <si>
-    <t>领导者树立改革创新观念的必要性</t>
-  </si>
-  <si>
-    <t>先人后事</t>
-  </si>
-  <si>
-    <t>权力来源</t>
-  </si>
-  <si>
-    <t>坚持人才原则</t>
-  </si>
-  <si>
-    <t>权责关系的</t>
-  </si>
-  <si>
-    <t>领导者树立正确的政治观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治方向，最终实现共产主义</t>
-  </si>
-  <si>
-    <t>人尽其才</t>
-  </si>
-  <si>
-    <t>权力监督</t>
-  </si>
-  <si>
-    <t>领导者树立人本观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治立场，为人民服务</t>
-  </si>
-  <si>
-    <t>人才竞争</t>
-  </si>
-  <si>
-    <t>权力行使的</t>
-  </si>
-  <si>
-    <t>领导者树立正确的权利观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治观点，运用马列毛，用科学和谐的理论，通灵党和国家各项工作</t>
-  </si>
-  <si>
-    <t>人文关怀</t>
-  </si>
-  <si>
-    <t>领导者树立法治观念的基本要求</t>
-  </si>
-  <si>
-    <t>领导者树立现代市场经济观念的基本要求</t>
-  </si>
-  <si>
-    <t>法律至上</t>
-  </si>
-  <si>
-    <t>人情了解市场经济体制的必然性</t>
-  </si>
-  <si>
-    <t>要认识改革创新的性质和目的</t>
-  </si>
-  <si>
-    <t>什么是政绩</t>
-  </si>
-  <si>
-    <t>领导者树立科学的改革创新观念的基本要求</t>
-  </si>
-  <si>
-    <t>人人平等</t>
-  </si>
-  <si>
-    <t>了解基本规律</t>
-  </si>
-  <si>
-    <t>要明确改革创新的价值</t>
-  </si>
-  <si>
-    <t>为谁创政绩</t>
-  </si>
-  <si>
-    <t>领导者树立科学的政绩观念的基本要求</t>
-  </si>
-  <si>
-    <t>人权保障</t>
-  </si>
-  <si>
-    <t>了解特征</t>
-  </si>
-  <si>
-    <t>坚持改革创新的立场</t>
-  </si>
-  <si>
-    <t>标准</t>
-  </si>
-  <si>
-    <t>依法用权</t>
-  </si>
-  <si>
-    <t>完善目标</t>
-  </si>
-  <si>
-    <t>保持解放思想的思维方式</t>
-  </si>
-  <si>
-    <t>怎么创造政绩</t>
-  </si>
-  <si>
-    <t>选择合理的改革方式</t>
-  </si>
-  <si>
-    <t>决策及其在领导工作中的地位：</t>
-  </si>
-  <si>
-    <t>决策的含义</t>
-  </si>
-  <si>
-    <t>做出的决定，是决策做出的决定</t>
-  </si>
-  <si>
-    <t>决策的构成要素</t>
-  </si>
-  <si>
-    <t>决策者</t>
-  </si>
-  <si>
-    <t>决策目标</t>
-  </si>
-  <si>
-    <t>决策环境</t>
-  </si>
-  <si>
-    <t>决策结果</t>
-  </si>
-  <si>
-    <t>决策备选方案</t>
-  </si>
-  <si>
-    <t>决策的基本特征</t>
-  </si>
-  <si>
-    <t>针对性</t>
-  </si>
-  <si>
-    <t>目的性</t>
-  </si>
-  <si>
-    <t>实施性</t>
-  </si>
-  <si>
-    <t>选择性</t>
-  </si>
-  <si>
-    <t>优化型</t>
-  </si>
-  <si>
-    <t>经验决策特点</t>
-  </si>
-  <si>
-    <t>是个人的决策活动，主要依靠决策者个人的素质做出决策，以经验为基础，信息量有限</t>
-  </si>
-  <si>
-    <t>科学决策的特点</t>
-  </si>
-  <si>
-    <t>注重集体共同决策，共同完成决策活动，建立在科学基础上，运用广泛的科学技术方法进行分析，确保决策的可靠性</t>
-  </si>
-  <si>
-    <t>决策的分类</t>
-  </si>
-  <si>
-    <t>战略，战术，程序化，非程序化，高中基层，最快，最优，确定性不确定性风险性</t>
-  </si>
-  <si>
-    <t>决策的模式</t>
-  </si>
-  <si>
-    <t>理性，渐进，综合</t>
-  </si>
-  <si>
-    <t>科学决策的原则，程序，方法：</t>
-  </si>
-  <si>
-    <t>德尔菲法特点</t>
-  </si>
-  <si>
-    <t>匿名</t>
-  </si>
-  <si>
-    <t>多伦反馈</t>
-  </si>
-  <si>
-    <t>最终结论的统一性</t>
-  </si>
-  <si>
-    <t>组成专家小组</t>
-  </si>
-  <si>
-    <t>头脑风暴法的含义</t>
-  </si>
-  <si>
-    <t>一定数量的专家，用创造性的思维对决策对象的未来做出判断性的方法</t>
-  </si>
-  <si>
-    <t>提供问题和要求，并提供相关信息和文件</t>
-  </si>
-  <si>
-    <t>试验决策法的含义</t>
-  </si>
-  <si>
-    <t>新出现的问题，无法通过经验，不能通过备选方案，无法选择最优方案的时候使用的决策</t>
-  </si>
-  <si>
-    <t>专家根据提供的资料给出预测结果</t>
-  </si>
-  <si>
-    <t>科学决策的基本标准</t>
-  </si>
-  <si>
-    <t>要有决策目标，决策方案可以实现目标，实现目标的成本低，没有副作用</t>
-  </si>
-  <si>
-    <t>手机专家预测结果，绘制图表分发给专家，进行对比和修改</t>
-  </si>
-  <si>
-    <t>科学决策的基本原则</t>
-  </si>
-  <si>
-    <t>客观性，信息性，程序性，选择性，可行性预测性，外脑性</t>
-  </si>
-  <si>
-    <t>手机修改后的结果，再次分发给专家，做二次修改</t>
-  </si>
-  <si>
-    <t>追踪决策的特征</t>
-  </si>
-  <si>
-    <t>回溯性，非零起点，双重优化，心灵效应</t>
-  </si>
-  <si>
-    <t>最后对专家的意见做综合评价</t>
-  </si>
-  <si>
-    <t>头脑风暴法必须遵循的原则</t>
-  </si>
-  <si>
-    <t>自由畅言，强调数量，禁止评论，相互借鉴</t>
-  </si>
-  <si>
-    <t>科学决策的程序</t>
-  </si>
-  <si>
-    <t>明确问题，确定目标，集思广益，拟定方案，分析评估，选择防范，实施方案，反馈修正</t>
-  </si>
-  <si>
-    <t>德尔菲法的实施步骤</t>
-  </si>
-  <si>
-    <t>决策树法的步骤</t>
-  </si>
-  <si>
-    <t>根据决策问题绘制决策树，计算概率值，计算收益指，提出最优方案</t>
-  </si>
-  <si>
-    <t>决策中枢系统为核心</t>
-  </si>
-  <si>
-    <t>决策信息性系统外围</t>
-  </si>
-  <si>
-    <t>决策中的领导者：</t>
-  </si>
-  <si>
-    <t>决策智囊系统两者之间</t>
-  </si>
-  <si>
-    <t>决策体质的内涵</t>
-  </si>
-  <si>
-    <t>承担决策的结构和人员组成的组织形式的体质</t>
-  </si>
-  <si>
-    <t>决策体质的构成</t>
-  </si>
-  <si>
-    <t>具有决策权的领导集团共同作出的决策</t>
-  </si>
-  <si>
-    <t>集体抉择含义</t>
-  </si>
-  <si>
-    <t>决策信息系统</t>
-  </si>
-  <si>
-    <t>个人决策的含义</t>
-  </si>
-  <si>
-    <t>具有决策权的个人作出的决策</t>
-  </si>
-  <si>
-    <t>危机决策的内涵</t>
-  </si>
-  <si>
-    <t>非程序化的决策，一般为从未见过的，难以决策的，环境变化无常的</t>
-  </si>
-  <si>
-    <t>现代决策体质系统</t>
-  </si>
-  <si>
-    <t>决策目标的指定</t>
-  </si>
-  <si>
-    <t>时效性</t>
-  </si>
-  <si>
-    <t>领导保证智囊团独立研究，不能干涉，只让智能团论证自己的正确性</t>
-  </si>
-  <si>
-    <t>领导者在决策活动中的主要职责</t>
-  </si>
-  <si>
-    <t>方案的指定</t>
-  </si>
-  <si>
-    <t>民主性</t>
-  </si>
-  <si>
-    <t>领导者不能被智囊团替换，不能让智囊团为领导者作出决定</t>
-  </si>
-  <si>
-    <t>集体决策需要注意的问题，对领导决策的基本要求</t>
-  </si>
-  <si>
-    <t>快速果断</t>
-  </si>
-  <si>
-    <t>方案的选择</t>
-  </si>
-  <si>
-    <t>灵活性</t>
-  </si>
-  <si>
-    <t>决策的问题进行科学预测</t>
-  </si>
-  <si>
-    <t>领导者与智囊团的关系</t>
-  </si>
-  <si>
-    <t>高效准确</t>
-  </si>
-  <si>
-    <t>方案的试试</t>
-  </si>
-  <si>
-    <t>系统性</t>
-  </si>
-  <si>
-    <t>觉得的方案进行设计和分析</t>
-  </si>
-  <si>
-    <t>领导者危机决策的基本要求</t>
-  </si>
-  <si>
-    <t>非程序性</t>
-  </si>
-  <si>
-    <t>合法性</t>
-  </si>
-  <si>
-    <t>觉得问题进行咨询</t>
-  </si>
-  <si>
-    <t>领导者在决策过程中发挥智囊团的作用</t>
-  </si>
-  <si>
-    <t>主动积极</t>
-  </si>
-  <si>
-    <t>决策实施情况进行反馈</t>
-  </si>
-  <si>
-    <t>领导者进行危机决策的方法</t>
-  </si>
-  <si>
-    <t>迅速果断</t>
-  </si>
-  <si>
-    <t>领导者科学决策的原则和方法</t>
-  </si>
-  <si>
-    <t>富有创意灵活</t>
-  </si>
-  <si>
-    <t>人才的特点</t>
-  </si>
-  <si>
-    <t>社会性</t>
-  </si>
-  <si>
-    <t>工作性质</t>
-  </si>
-  <si>
-    <t>理论</t>
-  </si>
-  <si>
-    <t>实践</t>
-  </si>
-  <si>
-    <t>人才是最宝贵的财富，是创造物质财富，精神财富的推动者</t>
-  </si>
-  <si>
-    <t>人才的类型</t>
-  </si>
-  <si>
-    <t>专业性</t>
-  </si>
-  <si>
-    <t>自身素质</t>
-  </si>
-  <si>
-    <t>发现型</t>
-  </si>
-  <si>
-    <t>再现型</t>
-  </si>
-  <si>
-    <t>人才是事业之本，正确的选才，推动社会金币</t>
-  </si>
-  <si>
-    <t>衡量人才的标准</t>
-  </si>
-  <si>
-    <t>衡量是否属于人才的指标和准则</t>
-  </si>
-  <si>
-    <t>创造性</t>
-  </si>
-  <si>
-    <t>发挥作用不同</t>
-  </si>
-  <si>
-    <t>组织型</t>
-  </si>
-  <si>
-    <t>操作型</t>
-  </si>
-  <si>
-    <t>人才是社会主义现代化建设的桥梁，选才，推动社会主义建设的关键</t>
-  </si>
-  <si>
-    <t>选材用人对于现代领导的重要意义</t>
-  </si>
-  <si>
-    <t>历史进步性</t>
-  </si>
-  <si>
-    <t>相对性</t>
-  </si>
-  <si>
-    <t>资历与能力的关系，避免论资排辈</t>
-  </si>
-  <si>
-    <t>选举制的含义</t>
-  </si>
-  <si>
-    <t>通过投票以选拔人才</t>
-  </si>
-  <si>
-    <t>察言观行相结合</t>
-  </si>
-  <si>
-    <t>知识分子与人才的关系，避免把两者等同起来</t>
-  </si>
-  <si>
-    <t>考选制的含义</t>
-  </si>
-  <si>
-    <t>通过考试选拔人才</t>
-  </si>
-  <si>
-    <t>考察历史和显示结合</t>
-  </si>
-  <si>
-    <t>学历和能力的关系，要实践与文化相结合</t>
-  </si>
-  <si>
-    <t>荐举制的含义</t>
-  </si>
-  <si>
-    <t>通过推荐选拔人才</t>
-  </si>
-  <si>
-    <t>发现人才的长处与短处</t>
-  </si>
-  <si>
-    <t>人才选拔的基本原则</t>
-  </si>
-  <si>
-    <t>群众评论</t>
-  </si>
-  <si>
-    <t>人才选拔的制度</t>
-  </si>
-  <si>
-    <t>选举</t>
-  </si>
-  <si>
-    <t>考选</t>
-  </si>
-  <si>
-    <t>推荐</t>
-  </si>
-  <si>
-    <t>领导者在选拔人才时必须正确处理的关系</t>
-  </si>
-  <si>
-    <t>领导者选拔人才的原则和方法</t>
-  </si>
-  <si>
-    <t>选任制的含义</t>
-  </si>
-  <si>
-    <t>通过群众依法投票的新鲜事选拔出来的人才的制度</t>
-  </si>
-  <si>
-    <t>委任制的含义</t>
-  </si>
-  <si>
-    <t>有任免权的领导按人事制度授予一定职位的制度</t>
-  </si>
-  <si>
-    <t>聘任制的含义</t>
-  </si>
-  <si>
-    <t>通过签署合同的方式照片人才的一种制度</t>
-  </si>
-  <si>
-    <t>考核制度的含义</t>
-  </si>
-  <si>
-    <t>对一定类型的员工的工作能力，工作绩效，工作态度，道德品质进行考核的一种制度</t>
-  </si>
-  <si>
-    <t>奖惩制度的含义</t>
-  </si>
-  <si>
-    <t>有突出成绩的给与物质奖励，有错误的惩处教育的一种制度</t>
-  </si>
-  <si>
-    <t>交流制度的含义</t>
-  </si>
-  <si>
-    <t>对于人才实行有计划的定期交流的一种制度</t>
-  </si>
-  <si>
-    <t>任期制度的含义</t>
-  </si>
-  <si>
-    <t>领导机关，事业单位中，某些职位员工工作时间有一定期限，任期满后，职权，责任自然取消</t>
-  </si>
-  <si>
-    <t>人才使用的基本原则</t>
-  </si>
-  <si>
-    <t>人才使用的主要制度</t>
-  </si>
-  <si>
-    <t>量才用人，只能相称</t>
-  </si>
-  <si>
-    <t>任免制度培养制度</t>
-  </si>
-  <si>
-    <t>领导者使用人才的基本原则和方法</t>
-  </si>
-  <si>
-    <t>扬长避短，各尽所能</t>
-  </si>
-  <si>
-    <t>考核制度奖惩制度</t>
-  </si>
-  <si>
-    <t>用人不疑，疑人不用</t>
-  </si>
-  <si>
-    <t>交流制度回避制度</t>
-  </si>
-  <si>
-    <t>合理搭配，整体效能</t>
-  </si>
-  <si>
-    <t>甚至制度辞职制度</t>
-  </si>
-  <si>
-    <t>五湖四海，宽以容才</t>
-  </si>
-  <si>
-    <t>任期制度，退休制度</t>
-  </si>
-  <si>
-    <t>合理流动，适材适所</t>
-  </si>
-  <si>
-    <t>爱护人才，关心帮助</t>
-  </si>
-  <si>
-    <t>重视培养，用养结合</t>
-  </si>
-  <si>
-    <t>思想政治工作的含义</t>
-  </si>
-  <si>
-    <t>思想工作就是人的工作，通过确立观念，立场，思想来提高工作效率</t>
-  </si>
-  <si>
-    <t>思想政治工作的对象</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>马克思主义基本理论</t>
-  </si>
-  <si>
-    <t>思想政治工作对领导工作的重要意义</t>
-  </si>
-  <si>
-    <t>领导者在领导工作中，提高人们的思想觉悟，调用积极性的一种手段</t>
-  </si>
-  <si>
-    <t>爱国主义教育</t>
-  </si>
-  <si>
-    <t>形式和任务教育</t>
-  </si>
-  <si>
-    <t>政治教育的含义</t>
-  </si>
-  <si>
-    <t>是指中国中国共产党基本路线和方正的教育，爱国主义教育，形势任务教育</t>
-  </si>
-  <si>
-    <t>民主与法治</t>
-  </si>
-  <si>
-    <t>公民素质教育的含义</t>
-  </si>
-  <si>
-    <t>思想</t>
-  </si>
-  <si>
-    <t>道德</t>
-  </si>
-  <si>
-    <t>法治</t>
-  </si>
-  <si>
-    <t>思想遇到的</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本内容</t>
-  </si>
-  <si>
-    <t>党的路线方正政策</t>
-  </si>
-  <si>
-    <t>政治教育的基本内容</t>
-  </si>
-  <si>
-    <t>爱国主义和社会主义教育</t>
-  </si>
-  <si>
-    <t>形式和任务的教育</t>
-  </si>
-  <si>
-    <t>基本路线政策与方针政策教育</t>
-  </si>
-  <si>
-    <t>公民素质教育的主要内容</t>
-  </si>
-  <si>
-    <t>说理教育法的含义</t>
-  </si>
-  <si>
-    <t>向思想教育对象，讲解有关理论和道理，以说理说服对方，转变思想的一种方式</t>
-  </si>
-  <si>
-    <t>情感交流法的含义</t>
-  </si>
-  <si>
-    <t>对教育对象，情感交流，以情感去感动对方，转变思想的一找那个方式</t>
-  </si>
-  <si>
-    <t>个别引导法的含义</t>
-  </si>
-  <si>
-    <t>对个别对象，采用各种方式，因时因地的各种方式进行思想教育工作</t>
-  </si>
-  <si>
-    <t>心里咨询法的含义</t>
-  </si>
-  <si>
-    <t>对对象用心理学的方法，认识到自己的的问题根源，挖掘潜力，提高自己的认知的一种方式</t>
-  </si>
-  <si>
-    <t>榜样示范法的含义</t>
-  </si>
-  <si>
-    <t>以先进人物的先进思想的一种方式来教育对方，提高对方思想觉悟的一种方式</t>
-  </si>
-  <si>
-    <t>自我教育法的含义</t>
-  </si>
-  <si>
-    <t>以自我学习，自我提高修养的一种方式不断完善自己的思想品德</t>
-  </si>
-  <si>
-    <t>思想政治工作的方针</t>
-  </si>
-  <si>
-    <t>坚持，疏导，疏通，引导</t>
-  </si>
-  <si>
-    <t>理论联系实际</t>
-  </si>
-  <si>
-    <t>疏导</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本原则</t>
-  </si>
-  <si>
-    <t>表扬和批评</t>
-  </si>
-  <si>
-    <t>疏通</t>
-  </si>
-  <si>
-    <t>集思广益，把心里话说出来</t>
-  </si>
-  <si>
-    <t>思想政治工作的方法</t>
-  </si>
-  <si>
-    <t>说理</t>
-  </si>
-  <si>
-    <t>精神奖励和物质奖励</t>
   </si>
   <si>
     <t>循循善诱，说服教育的方法，把不正确的思想引导正确的是想上</t>
@@ -2205,12 +2232,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2248,10 +2275,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2262,8 +2297,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2277,8 +2349,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2289,43 +2362,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2362,22 +2398,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2386,13 +2414,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2407,7 +2428,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2419,7 +2506,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,85 +2554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,7 +2572,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,49 +2602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2601,6 +2622,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2612,6 +2651,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2657,39 +2711,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2706,10 +2727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2718,19 +2739,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2739,16 +2760,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2757,98 +2775,101 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2865,9 +2886,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3220,8 +3238,8 @@
   <sheetPr/>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3230,67 +3248,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3317,190 +3335,190 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -3525,246 +3543,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -3789,34 +3807,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3824,57 +3842,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3882,18 +3900,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -3918,206 +3936,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -4132,7 +4150,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4141,132 +4159,132 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4280,143 +4298,238 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="1" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
-      <c r="D8" s="1" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
-      <c r="D9" s="1" t="s">
+    <row r="34" spans="3:3">
+      <c r="C34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
-      <c r="D10" s="1" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="6:6">
-      <c r="F11" s="1" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="6:6">
-      <c r="F12" s="1" t="s">
+      <c r="D39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="6:6">
-      <c r="F13" s="1" t="s">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
         <v>72</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4442,118 +4555,118 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4561,188 +4674,188 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="13:15">
       <c r="M17" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="6:15">
       <c r="F25" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4767,358 +4880,358 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5145,274 +5258,274 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5437,149 +5550,149 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="14:14">
       <c r="N4" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5587,90 +5700,90 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" s="1" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5695,378 +5808,378 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -6091,67 +6204,67 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -6159,171 +6272,171 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/Q.xlsx
+++ b/glkx/Q.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="707">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -148,124 +148,46 @@
     <t>领导职能的含义</t>
   </si>
   <si>
-    <t>就是领导的【职责】和【社会功能】，他是领导【本质】的【具体表现】</t>
-  </si>
-  <si>
     <t>领导职能在领导活动中的地位</t>
   </si>
   <si>
-    <t>领导职能是【确定合理的组织机构】，【实现领导科学化】的一个【重要标志】</t>
-  </si>
-  <si>
-    <t>领导职能是【领导活动科学化】的依据</t>
-  </si>
-  <si>
-    <t>领导职能的实现情况是【检验】【领导活动结束】的依据</t>
-  </si>
-  <si>
     <t>领导的一般职能</t>
   </si>
   <si>
-    <t>引导（为群众引路导航，正确的规划目标，提出任务，实现方法，是基本职能）</t>
-  </si>
-  <si>
-    <t>指挥，（运用组织权责，推动下属为实现目标努力，一般采用命令，说服，示范）</t>
-  </si>
-  <si>
-    <t>组织（按照目标，合理设置机构，简历体质，分配权力，使用人员）</t>
-  </si>
-  <si>
-    <t>协调（领导的系统同外部环境之间，为了达到目标相互配合）</t>
-  </si>
-  <si>
-    <t>监督（检查规划目标任务的执行情况，及时发现问题，纠正偏差）</t>
-  </si>
-  <si>
-    <t>教育（对广大群众进行宣传，动员，培养，训练，从各方面提高他们的素质，改正错误）</t>
-  </si>
-  <si>
     <t>当代领导的基本职能</t>
   </si>
   <si>
-    <t>科学决策（决策的正确与否直接关系到领导工作的成功失败，社会主义市场经济条件下，决策需要科学化）</t>
-  </si>
-  <si>
-    <t>选才用人</t>
-  </si>
-  <si>
-    <t>思想政治工作（以人为对象，解决人的思想观念，思想认识，政治立场问题，从而提高人们认识世界和改造世界的能力）</t>
-  </si>
-  <si>
     <t>领导用人必须注意</t>
   </si>
   <si>
-    <t>能级，能质对应（能力和素质要对应）</t>
-  </si>
-  <si>
-    <t>优势定位（把人才安置在有利于发挥其优势的岗位上）</t>
-  </si>
-  <si>
-    <t>结构优化（不同人才配置得当）</t>
-  </si>
-  <si>
     <t>思想政治工作正确处理要素之间的关系要做到</t>
   </si>
   <si>
-    <t>内容和方法必须适应被教育者的思想发展变化规律</t>
-  </si>
-  <si>
-    <t>依靠群众力量做好思想政治工作</t>
-  </si>
-  <si>
-    <t>教育者必须先受教育</t>
-  </si>
-  <si>
     <t>领导的总原则</t>
   </si>
   <si>
-    <t>领导者在进行领导活动的过程中必须坚持和遵循的【标准和法则】，</t>
-  </si>
-  <si>
-    <t>它是领导职能的根本途径，同时又是领导原理与理论在不同环境下的具体体现</t>
-  </si>
-  <si>
     <t>领导原则根据实际需要可以分为</t>
   </si>
   <si>
     <t>总原则</t>
   </si>
   <si>
-    <t>基本原则</t>
-  </si>
-  <si>
-    <t>具体原则</t>
-  </si>
-  <si>
-    <t>是指在我国领导实际情况中那些根本性和综合性的原则</t>
-  </si>
-  <si>
     <t>总原则包括</t>
   </si>
   <si>
-    <t>党的基本路线原则（一个中心，两个基本点）</t>
-  </si>
-  <si>
-    <t>实事求是原则（）</t>
-  </si>
-  <si>
-    <t>民主集中制原则（民主基础上和在集中指导下的民主相结合）</t>
-  </si>
-  <si>
-    <t>群众路线原则（从群众中来，到群众中去）</t>
-  </si>
-  <si>
     <t>民主集中制原则基本内容</t>
   </si>
   <si>
-    <t>个人服从组织，少数服从多数，下级服从上级，全党服从中央</t>
-  </si>
-  <si>
     <t>领导的基本原则</t>
+  </si>
+  <si>
+    <t>统一领导两个方面意思</t>
+  </si>
+  <si>
+    <t>为了实现统一领导，解决两种关系</t>
+  </si>
+  <si>
+    <t>分层领导原则</t>
   </si>
   <si>
     <t>领导观念的基本内涵</t>
@@ -2232,8 +2154,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2276,52 +2198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2341,9 +2218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2357,8 +2233,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2397,6 +2288,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -2405,15 +2328,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2428,37 +2350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2470,37 +2362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,13 +2374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2536,7 +2392,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2548,7 +2440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2560,7 +2470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,43 +2506,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2619,24 +2541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2651,21 +2555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2694,6 +2583,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2711,11 +2635,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2727,10 +2649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2739,133 +2661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3335,190 +3257,190 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -3543,246 +3465,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3807,34 +3729,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3842,57 +3764,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3900,18 +3822,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -3936,206 +3858,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -4298,10 +4220,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4314,222 +4236,77 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="5" t="s">
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="5" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4555,118 +4332,118 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4674,188 +4451,188 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="13:15">
       <c r="M17" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="6:15">
       <c r="F25" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4880,358 +4657,358 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5258,274 +5035,274 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="1" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="1" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="1" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5550,149 +5327,149 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="14:14">
       <c r="N4" s="1" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5700,90 +5477,90 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" s="1" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" s="1" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" s="1" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="1" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5808,378 +5585,378 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -6204,67 +5981,67 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -6272,171 +6049,171 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/Q.xlsx
+++ b/glkx/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690" tabRatio="882" activeTab="2"/>
+    <workbookView windowHeight="17020" tabRatio="882" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -193,250 +193,67 @@
     <t>领导观念的基本内涵</t>
   </si>
   <si>
-    <t>领导对领导活动中的规律性的本质认识和反应</t>
-  </si>
-  <si>
-    <t>知道领导者思维活动，制约思维活动的过程和结果</t>
-  </si>
-  <si>
     <t>现代领导观念的基本特征</t>
   </si>
   <si>
-    <t>以马列主义，毛泽东思想坚持一切从实际出发的政治立场</t>
-  </si>
-  <si>
-    <t>决定领导者的领导方式，影响成败</t>
-  </si>
-  <si>
     <t>领导观念的重要作用</t>
   </si>
   <si>
-    <t>坚持继承优良传统，体现时代精神，抛弃就的观念，树立新华年</t>
-  </si>
-  <si>
     <t>政治观念的基本内涵</t>
   </si>
   <si>
-    <t>坚持中国民族特色，建设中国特色社会主义</t>
-  </si>
-  <si>
-    <t>领导者对政治本质的认识和看法</t>
+    <t>领导者树立政治观念的必要性</t>
+  </si>
+  <si>
+    <t>领导者树立正确的政治观念的基本要求</t>
   </si>
   <si>
     <t>人本观念的基本内涵</t>
   </si>
   <si>
-    <t>坚持以人为本，发展需要人民，最终是为了人的全面发展</t>
+    <t>领导者树立人本观念的必要性</t>
+  </si>
+  <si>
+    <t>领导者树立人本观念的基本要求</t>
   </si>
   <si>
     <t>权力观念的基本内涵</t>
   </si>
   <si>
-    <t>把个人意志强加在其他人行为上的能力</t>
-  </si>
-  <si>
-    <t>市场经济的需要</t>
-  </si>
-  <si>
-    <t>领导工作中主要矛盾决定的</t>
+    <t>领导者树立正确的权利观念的基本要求</t>
   </si>
   <si>
     <t>法制观念的基本内涵</t>
   </si>
   <si>
-    <t>围绕领导权和领导职能锁形成的依法全和依法领导的思维方式</t>
-  </si>
-  <si>
-    <t>党的基本路线</t>
-  </si>
-  <si>
-    <t>社会主义社会对领导的本质要求决定的</t>
+    <t>领导者的法制观念</t>
+  </si>
+  <si>
+    <t>社会主义法制理念（胡锦涛）</t>
+  </si>
+  <si>
+    <t>领导者树立法治观念的必要性</t>
+  </si>
+  <si>
+    <t>领导者树立法治观念的基本要求</t>
   </si>
   <si>
     <t>市场经济观念的基本内涵</t>
   </si>
   <si>
-    <t>领导者对市场经济的认识</t>
-  </si>
-  <si>
-    <t>密切党群关系的需要</t>
+    <t>领导者树立现代市场经济观念的基本要求</t>
   </si>
   <si>
     <t>改革创新观念的基本内涵</t>
   </si>
   <si>
-    <t>对改革创新的总体认识和看法</t>
-  </si>
-  <si>
-    <t>坚持党性质和宗旨的需要</t>
-  </si>
-  <si>
-    <t>权力是领导者执行领导活动的基本和前提</t>
-  </si>
-  <si>
-    <t>对政治本质的认识和看法</t>
-  </si>
-  <si>
-    <t>对外工作的需要</t>
-  </si>
-  <si>
-    <t>没有权力领导者无法完成使命</t>
-  </si>
-  <si>
-    <t>领导者树立政治观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法治国的前提条件</t>
-  </si>
-  <si>
-    <t>科学发展</t>
-  </si>
-  <si>
-    <t>必须要有决策权和用人权</t>
-  </si>
-  <si>
-    <t>领导者树立人本观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法行政的首要条件</t>
-  </si>
-  <si>
-    <t>时代变化的要求</t>
-  </si>
-  <si>
-    <t>领导者树立权力观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法政府必要条件</t>
-  </si>
-  <si>
-    <t>社会主义现代化建设的要求</t>
-  </si>
-  <si>
-    <t>领导者树立法治观念的必要性</t>
-  </si>
-  <si>
-    <t>保障人权的需要</t>
-  </si>
-  <si>
-    <t>保障事业发展的要求</t>
-  </si>
-  <si>
-    <t>为人民服务</t>
-  </si>
-  <si>
-    <t>权力内容</t>
-  </si>
-  <si>
     <t>领导者树立改革创新观念的必要性</t>
   </si>
   <si>
-    <t>先人后事</t>
-  </si>
-  <si>
-    <t>权力来源</t>
-  </si>
-  <si>
-    <t>坚持人才原则</t>
-  </si>
-  <si>
-    <t>权责关系的</t>
-  </si>
-  <si>
-    <t>领导者树立正确的政治观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治方向，最终实现共产主义</t>
-  </si>
-  <si>
-    <t>人尽其才</t>
-  </si>
-  <si>
-    <t>权力监督</t>
-  </si>
-  <si>
-    <t>领导者树立人本观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治立场，为人民服务</t>
-  </si>
-  <si>
-    <t>人才竞争</t>
-  </si>
-  <si>
-    <t>权力行使的</t>
-  </si>
-  <si>
-    <t>领导者树立正确的权利观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治观点，运用马列毛，用科学和谐的理论，通灵党和国家各项工作</t>
-  </si>
-  <si>
-    <t>人文关怀</t>
-  </si>
-  <si>
-    <t>领导者树立法治观念的基本要求</t>
-  </si>
-  <si>
-    <t>领导者树立现代市场经济观念的基本要求</t>
-  </si>
-  <si>
-    <t>法律至上</t>
-  </si>
-  <si>
-    <t>人情了解市场经济体制的必然性</t>
-  </si>
-  <si>
-    <t>要认识改革创新的性质和目的</t>
-  </si>
-  <si>
-    <t>什么是政绩</t>
-  </si>
-  <si>
-    <t>领导者树立科学的改革创新观念的基本要求</t>
-  </si>
-  <si>
-    <t>人人平等</t>
-  </si>
-  <si>
-    <t>了解基本规律</t>
-  </si>
-  <si>
-    <t>要明确改革创新的价值</t>
-  </si>
-  <si>
-    <t>为谁创政绩</t>
+    <t>领导者树立改革创新观念的基本要求</t>
   </si>
   <si>
     <t>领导者树立科学的政绩观念的基本要求</t>
-  </si>
-  <si>
-    <t>人权保障</t>
-  </si>
-  <si>
-    <t>了解特征</t>
-  </si>
-  <si>
-    <t>坚持改革创新的立场</t>
-  </si>
-  <si>
-    <t>标准</t>
-  </si>
-  <si>
-    <t>依法用权</t>
-  </si>
-  <si>
-    <t>完善目标</t>
-  </si>
-  <si>
-    <t>保持解放思想的思维方式</t>
-  </si>
-  <si>
-    <t>怎么创造政绩</t>
-  </si>
-  <si>
-    <t>选择合理的改革方式</t>
   </si>
   <si>
     <t>决策及其在领导工作中的地位：</t>
@@ -2155,9 +1972,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2198,21 +2015,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2225,16 +2028,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,26 +2066,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2288,32 +2098,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2328,6 +2114,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2335,7 +2152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2350,13 +2167,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,169 +2341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2544,32 +2361,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2579,15 +2384,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2603,17 +2399,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2635,9 +2420,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2646,148 +2463,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2813,54 +2630,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3156,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -3164,7 +2981,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -3235,14 +3052,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -3250,197 +3067,197 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>524</v>
+        <v>463</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>525</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>526</v>
+        <v>465</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>530</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>532</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>534</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>535</v>
+        <v>474</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>536</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>537</v>
+        <v>476</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>538</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>539</v>
+        <v>478</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>540</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>541</v>
+        <v>480</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>542</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>543</v>
+        <v>482</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>544</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>546</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>547</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>548</v>
+        <v>487</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>549</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>550</v>
+        <v>489</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>551</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>554</v>
+        <v>493</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>555</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>557</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>558</v>
+        <v>497</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>559</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>560</v>
+        <v>499</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>561</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>562</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>564</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>565</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>567</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>568</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -3458,253 +3275,253 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>570</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>571</v>
+        <v>510</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>572</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>573</v>
+        <v>512</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>577</v>
+        <v>516</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>578</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>580</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>581</v>
+        <v>520</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>584</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>585</v>
+        <v>524</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>586</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>588</v>
+        <v>527</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>590</v>
+        <v>529</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>591</v>
+        <v>530</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>592</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>594</v>
+        <v>533</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>595</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>596</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>597</v>
+        <v>536</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>599</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>604</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>606</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>608</v>
+        <v>547</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>609</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>610</v>
+        <v>549</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>611</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>612</v>
+        <v>551</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>613</v>
+        <v>552</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>614</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>615</v>
+        <v>554</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>616</v>
+        <v>555</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>617</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>618</v>
+        <v>557</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>619</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>620</v>
+        <v>559</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>621</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>622</v>
+        <v>561</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>623</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>624</v>
+        <v>563</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>625</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>626</v>
+        <v>565</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>629</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -3714,7 +3531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -3722,41 +3539,41 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>631</v>
+        <v>570</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>633</v>
+        <v>572</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>634</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>635</v>
+        <v>574</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>636</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>637</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>638</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3764,57 +3581,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>639</v>
+        <v>578</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>640</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>643</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>644</v>
+        <v>583</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>645</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>646</v>
+        <v>585</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>648</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>649</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3822,18 +3639,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>651</v>
+        <v>590</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>652</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>653</v>
+        <v>592</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>654</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -3843,7 +3660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -3851,213 +3668,213 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>655</v>
+        <v>594</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>656</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>657</v>
+        <v>596</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>660</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>662</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>663</v>
+        <v>602</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>664</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>667</v>
+        <v>606</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>668</v>
+        <v>607</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>669</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>670</v>
+        <v>609</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>671</v>
+        <v>610</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>672</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>673</v>
+        <v>612</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>674</v>
+        <v>613</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>675</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>676</v>
+        <v>615</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>680</v>
+        <v>619</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>681</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>682</v>
+        <v>621</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>683</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>684</v>
+        <v>623</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>685</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>686</v>
+        <v>625</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>687</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>688</v>
+        <v>627</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>690</v>
+        <v>629</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>691</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>692</v>
+        <v>631</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>693</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>694</v>
+        <v>633</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>695</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>696</v>
+        <v>635</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>697</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>699</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>700</v>
+        <v>639</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>701</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>703</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>704</v>
+        <v>643</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>705</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>706</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -4067,7 +3884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A29"/>
   <sheetViews>
@@ -4075,7 +3892,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -4211,22 +4028,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -4310,330 +4127,161 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="1" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="1" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="1" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="13:15">
-      <c r="M17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="6:15">
-      <c r="F25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="12:12">
-      <c r="L26" s="1" t="s">
-        <v>136</v>
-      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4642,7 +4290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -4650,365 +4298,365 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" s="1" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5018,7 +4666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
@@ -5026,7 +4674,7 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
@@ -5035,274 +4683,274 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="1" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="1" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="1" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5312,7 +4960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -5320,156 +4968,156 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="14:14">
       <c r="N4" s="1" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5477,90 +5125,90 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" s="1" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" s="1" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" s="1" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="1" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5570,7 +5218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S34"/>
   <sheetViews>
@@ -5578,385 +5226,385 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>375</v>
+        <v>314</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>376</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>386</v>
+        <v>325</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>389</v>
+        <v>328</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>412</v>
+        <v>351</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>413</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>417</v>
+        <v>356</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>424</v>
+        <v>363</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>425</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>428</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>429</v>
+        <v>368</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>441</v>
+        <v>380</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>447</v>
+        <v>386</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>448</v>
+        <v>387</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>449</v>
+        <v>388</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>450</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>453</v>
+        <v>392</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>455</v>
+        <v>394</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>458</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>459</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>460</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>462</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -5966,7 +5614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -5974,74 +5622,74 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>464</v>
+        <v>403</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>468</v>
+        <v>407</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>470</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>471</v>
+        <v>410</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>472</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>473</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>475</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>477</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>478</v>
+        <v>417</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>479</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -6049,171 +5697,171 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>482</v>
+        <v>421</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>483</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>485</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>486</v>
+        <v>425</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>487</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>488</v>
+        <v>427</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>489</v>
+        <v>428</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>490</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>491</v>
+        <v>430</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>493</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>495</v>
+        <v>434</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>497</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>499</v>
+        <v>438</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>500</v>
+        <v>439</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>503</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>505</v>
+        <v>444</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>506</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>507</v>
+        <v>446</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>508</v>
+        <v>447</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>512</v>
+        <v>451</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>518</v>
+        <v>457</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>519</v>
+        <v>458</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>520</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="1" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>521</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/Q.xlsx
+++ b/glkx/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="882" activeTab="3"/>
+    <workbookView windowWidth="18800" windowHeight="16400" tabRatio="882"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -43,10 +43,19 @@
     <t>领导科学</t>
   </si>
   <si>
+    <t>新时期社会主义现代化建设的客观要求</t>
+  </si>
+  <si>
     <t>领导活动过程基本要素</t>
   </si>
   <si>
+    <t>总结党的丰富领导经验和领导理论的需要</t>
+  </si>
+  <si>
     <t>领导科学的范围</t>
+  </si>
+  <si>
+    <t>是借鉴古今中外领导思想和管理的结晶</t>
   </si>
   <si>
     <t>领导科学的特点</t>
@@ -1971,12 +1980,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2014,11 +2023,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.15"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2029,15 +2037,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2058,9 +2082,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2073,24 +2135,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2105,54 +2166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2173,13 +2188,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,67 +2308,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2269,85 +2356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2364,41 +2379,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2414,17 +2396,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2458,93 +2429,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2556,59 +2571,59 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2625,6 +2640,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2975,29 +2993,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3006,49 +3024,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3074,190 +3101,190 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -3282,246 +3309,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -3546,34 +3573,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3581,57 +3608,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3639,18 +3666,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -3675,206 +3702,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -3899,132 +3926,132 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:1">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4050,80 +4077,80 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4138,8 +4165,8 @@
   <sheetPr/>
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4149,117 +4176,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -4305,358 +4332,358 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4683,274 +4710,274 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4975,149 +5002,149 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="14:14">
       <c r="N4" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5125,90 +5152,90 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5233,378 +5260,378 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -5629,67 +5656,67 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -5697,171 +5724,171 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/Q.xlsx
+++ b/glkx/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16420" tabRatio="882" activeTab="7"/>
+    <workbookView windowHeight="17020" tabRatio="882" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -43,81 +43,30 @@
     <t>领导科学</t>
   </si>
   <si>
-    <t>活动发展规律</t>
-  </si>
-  <si>
     <t>领导活动过程基本要素</t>
   </si>
   <si>
-    <t>领导者</t>
-  </si>
-  <si>
     <t>领导科学的范围</t>
   </si>
   <si>
-    <t>社会主义</t>
-  </si>
-  <si>
-    <t>被领导者</t>
-  </si>
-  <si>
     <t>领导科学的特点</t>
   </si>
   <si>
-    <t>总结</t>
-  </si>
-  <si>
-    <t>群体目标</t>
-  </si>
-  <si>
     <t>领导科学与其他学科的关系</t>
   </si>
   <si>
-    <t>借鉴古今中外</t>
-  </si>
-  <si>
-    <t>环境</t>
-  </si>
-  <si>
-    <t>想和结合，作用的规律科学</t>
-  </si>
-  <si>
     <t>学习领导学科的目的（意义）</t>
   </si>
   <si>
     <t>如何建设中国特色的领导科学</t>
   </si>
   <si>
-    <t>迎接世界新技术革命的挑战</t>
-  </si>
-  <si>
     <t>学习领导科学的方法</t>
   </si>
   <si>
-    <t>本质</t>
-  </si>
-  <si>
     <t>学习领导科学注重的方法</t>
   </si>
   <si>
-    <t>观念</t>
-  </si>
-  <si>
-    <t>只能</t>
-  </si>
-  <si>
-    <t>体制</t>
-  </si>
-  <si>
-    <t>素质和修养</t>
-  </si>
-  <si>
-    <t>领导方法作风</t>
-  </si>
-  <si>
-    <t>绩效考核</t>
-  </si>
-  <si>
     <t>领导的含义</t>
   </si>
   <si>
@@ -556,325 +505,121 @@
     <t>领导者素质的内涵</t>
   </si>
   <si>
-    <t>与职位相符的领导主体，为了履行领导职责，所具备的价值理念行为能力</t>
-  </si>
-  <si>
-    <t>实施有效领导的基础</t>
-  </si>
-  <si>
     <t>领导者素质的特点</t>
   </si>
   <si>
-    <t>综合性</t>
-  </si>
-  <si>
-    <t>动态性</t>
-  </si>
-  <si>
-    <t>自治性</t>
-  </si>
-  <si>
-    <t>领导力的基础</t>
-  </si>
-  <si>
     <t>领导者素质的重要性</t>
   </si>
   <si>
-    <t>决定着领导绩效的高低</t>
-  </si>
-  <si>
-    <t>兴衰存亡</t>
-  </si>
-  <si>
-    <t>【政治素质】的含义</t>
-  </si>
-  <si>
-    <t>领导者从事领导活动所具备的政治立场，政治观念，政治态度，正式品质</t>
-  </si>
-  <si>
-    <t>【道德素质】的含义</t>
-  </si>
-  <si>
-    <t>领导者的品德修养，道德规范</t>
-  </si>
-  <si>
-    <t>【知识素质】的含义</t>
-  </si>
-  <si>
-    <t>做好工作所具备的基础知识和专业知识</t>
-  </si>
-  <si>
-    <t>领导者【政治素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>崇高的政治理想，高度的政治责任感，理性的民主政治自觉</t>
-  </si>
-  <si>
-    <t>领导者【法律素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>掌握法律知识，具有法律意识，注重职务守法</t>
-  </si>
-  <si>
-    <t>领导者【能力素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>科学的决策能力，知人善任的能力，激励能力，沟通能力，创新能力，危机管理能力</t>
-  </si>
-  <si>
-    <t>领导者【道德素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>忠诚于国家人民，公正廉洁，勤政尽职，严于律己宽以待人</t>
-  </si>
-  <si>
-    <t>领导者【知识素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>基础知识，专业知识，辅助知识</t>
-  </si>
-  <si>
-    <t>重视学习</t>
-  </si>
-  <si>
-    <t>领导者【身心素质】的【内容】</t>
-  </si>
-  <si>
-    <t>自我</t>
-  </si>
-  <si>
-    <t>正确认识自我，快熔他人</t>
-  </si>
-  <si>
-    <t>注重实践</t>
+    <t>政治素质的含义</t>
+  </si>
+  <si>
+    <t>领导者的素质一般包括几方面</t>
+  </si>
+  <si>
+    <t>领导者政治素质的要点（基本内容）</t>
+  </si>
+  <si>
+    <t>领导者法律素质的基本内容</t>
+  </si>
+  <si>
+    <t>领导者能力素质的基本内容</t>
+  </si>
+  <si>
+    <t>道德素质的含义</t>
+  </si>
+  <si>
+    <t>领导者道德素质的基本内容</t>
+  </si>
+  <si>
+    <t>知识素质的含义</t>
+  </si>
+  <si>
+    <t>领导者知识素质的基本内容</t>
+  </si>
+  <si>
+    <t>领导者身心素质的基本要求</t>
   </si>
   <si>
     <t>领导者提高和培养素质的基本途径</t>
   </si>
   <si>
-    <t>财富权力</t>
-  </si>
-  <si>
-    <t>正确看待财富权力，保持从容</t>
-  </si>
-  <si>
-    <t>注意自省</t>
-  </si>
-  <si>
-    <t>当前领导者提高素质的基本方法</t>
-  </si>
-  <si>
-    <t>工作生活</t>
-  </si>
-  <si>
-    <t>正确对待工作和生活，避免浮躁</t>
-  </si>
-  <si>
-    <t>健全制度</t>
-  </si>
-  <si>
-    <t>气质</t>
-  </si>
-  <si>
-    <t>注意气质，融入环境</t>
-  </si>
-  <si>
     <t>领导者集体素质结构的含义</t>
   </si>
   <si>
-    <t>各领导之间按一定关系组合在一起的集体领导整体</t>
-  </si>
-  <si>
-    <t>年龄结构要阶梯</t>
-  </si>
-  <si>
     <t>领导集体素质结构的特征</t>
   </si>
   <si>
-    <t>整体，相关，目的，稳定，适应</t>
-  </si>
-  <si>
-    <t>知识结构要合理</t>
-  </si>
-  <si>
-    <t>合理的领导集体素质结构的基本内容</t>
-  </si>
-  <si>
-    <t>能力结构要互补</t>
+    <t>合理的领导集体素质结构的基本内容（包括那几个方面）</t>
   </si>
   <si>
     <t>领导集体素质结构优化的原则</t>
   </si>
   <si>
-    <t>主动性</t>
-  </si>
-  <si>
-    <t>气质结构要协调</t>
-  </si>
-  <si>
     <t>优化领导集体素质结构的途径</t>
   </si>
   <si>
-    <t>互补性</t>
-  </si>
-  <si>
-    <t>转变观念是前提</t>
-  </si>
-  <si>
-    <t>当前中国领导集体素质结构优化的原则和方法</t>
-  </si>
-  <si>
-    <t>静感性</t>
-  </si>
-  <si>
-    <t>搞好后背队伍建设是基础</t>
-  </si>
-  <si>
-    <t>目的性</t>
-  </si>
-  <si>
-    <t>加强集体自身建设是根本</t>
-  </si>
-  <si>
-    <t>改善干部管理制度是保证</t>
-  </si>
-  <si>
     <t>领导方法的含义</t>
   </si>
   <si>
-    <t>领导者履行职责，完成领导目标，所需要的方法，手段的综合</t>
-  </si>
-  <si>
-    <t>领导方法在领导活动中处于中介地位</t>
-  </si>
-  <si>
     <t>领导方法的特征</t>
   </si>
   <si>
-    <t>客观性，动态性，目的性，条件性，时效性</t>
-  </si>
-  <si>
-    <t>科学的领导方法是提高效率的推进器</t>
-  </si>
-  <si>
     <t>运用领导方法的重要意义</t>
   </si>
   <si>
-    <t>科学的领导方法是现代领导的必备条件</t>
-  </si>
-  <si>
     <t>运用领导方法的基本原则</t>
   </si>
   <si>
-    <t>目的性原则，创造性原则，具体性原则，高效性原则</t>
+    <t>辩证逻辑思维方法</t>
+  </si>
+  <si>
+    <t>系统性思维方法</t>
   </si>
   <si>
     <t>战略性思维方法的特征</t>
   </si>
   <si>
-    <t>预见性，长远性，综合性，全局性</t>
+    <t>改善战略性思维方法的途径</t>
   </si>
   <si>
     <t>创造性思维的特征</t>
   </si>
   <si>
-    <t>独特性，求异性，灵活性，敏捷性，跳跃性，联动性，综合性</t>
-  </si>
-  <si>
     <t>创造性思维原理</t>
   </si>
   <si>
-    <t>陌生原理，逆向原理，聚焦原理，综合原理</t>
-  </si>
-  <si>
-    <t>辩证逻辑思维方法</t>
-  </si>
-  <si>
-    <t>比较抽象概括的方法，分析综合，归纳演义的方法，抽象具体，历史逻辑统一的方法</t>
-  </si>
-  <si>
-    <t>系统性思维方法</t>
-  </si>
-  <si>
-    <t>整体性思维，动态性思维，结构性思维</t>
-  </si>
-  <si>
-    <t>改善战略性思维方法的途径</t>
-  </si>
-  <si>
-    <t>正确认识过去现在未来之间的本质联系，找到规律，完善预见能力</t>
-  </si>
-  <si>
     <t>创造性思维方法</t>
   </si>
   <si>
-    <t>发挥个人的直接，灵感，想象力，进行创造性思维，发挥集体智慧进行创造性思维，信息交合法</t>
-  </si>
-  <si>
-    <t>领导者思维方法的训练和应用</t>
+    <t>基本领导方法的内容</t>
+  </si>
+  <si>
+    <t>一切从实际出发，做好调查研究</t>
+  </si>
+  <si>
+    <t>掌握调查的方法</t>
   </si>
   <si>
     <t>典型调查的含义</t>
   </si>
   <si>
-    <t>根据一定调查目的，在调查对象中，通过科学分析对有一定规律的对象，选择若干个体，进行深入研究</t>
-  </si>
-  <si>
     <t>抽样调查的含义</t>
   </si>
   <si>
-    <t>在调查对象中，抽取一部分进行调查分析，通过个别推论全部</t>
-  </si>
-  <si>
     <t>普遍调查的含义</t>
   </si>
   <si>
-    <t>全部个体进行无遗漏的调查</t>
+    <t>现在科学领导方法的应用</t>
   </si>
   <si>
     <t>系统领导法的含义</t>
   </si>
   <si>
-    <t>从领导活动的整体性出发，根据领导活动的空间结构，运行过程进行最优设计，从而实现最有效率的科学方法</t>
-  </si>
-  <si>
     <t>信息方法的含义</t>
   </si>
   <si>
-    <t>通过信息的观点，把系统看做，输入，传递，加工，反馈，从而实现目标性活动的一种方法</t>
-  </si>
-  <si>
     <t>控制论方法的含义</t>
-  </si>
-  <si>
-    <t>把人的行为，目的，生理基础与电子，机械运动结合起来，通过解决控制与被控制的矛盾，似的稳定进行的一种方法</t>
-  </si>
-  <si>
-    <t>基本领导方法的内容</t>
-  </si>
-  <si>
-    <t>一切从实际出发，调查研究，按辩证法的规律办事 ，坚持群众路线</t>
-  </si>
-  <si>
-    <t>系统论方法的内容</t>
-  </si>
-  <si>
-    <t>信息论方法的内容</t>
-  </si>
-  <si>
-    <t>控制论方法的内容</t>
-  </si>
-  <si>
-    <t>基本领导方法的应用</t>
-  </si>
-  <si>
-    <t>现在科学领导方法的应用</t>
-  </si>
-  <si>
-    <t>系统论，控制论，信息论</t>
-  </si>
-  <si>
-    <t>系统掌握基本领导方法和现在科学领导方法</t>
   </si>
   <si>
     <t>领导艺术的含义</t>
@@ -1299,12 +1044,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,18 +1087,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.15"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1368,6 +1101,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1377,7 +1117,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,106 +1226,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1513,7 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,7 +1258,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,43 +1306,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,13 +1348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,43 +1366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,37 +1384,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,6 +1452,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1734,25 +1476,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1773,17 +1502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1798,157 +1516,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1965,12 +1698,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2321,10 +2048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2333,131 +2060,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="5" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="5" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="5" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="5" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="13:13">
-      <c r="M11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="10:10">
-      <c r="J16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10">
-      <c r="J19" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10">
-      <c r="J20" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2470,203 +2134,121 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>260</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
-        <v>282</v>
+      <c r="A13" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2691,246 +2273,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2955,34 +2537,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2990,57 +2572,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3048,18 +2630,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3084,206 +2666,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>392</v>
+        <v>307</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>394</v>
+        <v>309</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>395</v>
+        <v>310</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>396</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>398</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>399</v>
+        <v>314</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>400</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>402</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>404</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>406</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>408</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>410</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>411</v>
+        <v>326</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>414</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>415</v>
+        <v>330</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>416</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>418</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>419</v>
+        <v>334</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>420</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>421</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3308,132 +2890,132 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:1">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3459,80 +3041,80 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3558,117 +3140,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -3715,152 +3297,152 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3888,82 +3470,82 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3989,87 +3571,87 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4083,8 +3665,8 @@
   <sheetPr/>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4095,97 +3677,97 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4197,252 +3779,111 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="13:13">
-      <c r="M4" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="F24" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/Q.xlsx
+++ b/glkx/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="882" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="9450" windowHeight="7860" tabRatio="882" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="340">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -517,10 +517,19 @@
     <t>领导者的素质一般包括几方面</t>
   </si>
   <si>
+    <t>具有崇高的政治思想</t>
+  </si>
+  <si>
     <t>领导者政治素质的要点（基本内容）</t>
   </si>
   <si>
+    <t>高度的政治责任感</t>
+  </si>
+  <si>
     <t>领导者法律素质的基本内容</t>
+  </si>
+  <si>
+    <t>理性的民主政治自觉</t>
   </si>
   <si>
     <t>领导者能力素质的基本内容</t>
@@ -1088,6 +1097,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1095,14 +1133,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,11 +1185,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1140,16 +1202,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1163,69 +1233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,7 +1249,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,13 +1357,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,145 +1429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,20 +1452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1476,12 +1482,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1502,32 +1521,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,148 +1545,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1703,54 +1712,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2046,7 +2055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -2054,7 +2063,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -2132,15 +2141,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -2148,107 +2157,107 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2258,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -2266,253 +2275,253 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -2530,41 +2539,41 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2572,57 +2581,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2630,18 +2639,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -2659,213 +2668,213 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2875,7 +2884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A29"/>
   <sheetViews>
@@ -2883,7 +2892,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -3026,7 +3035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -3034,7 +3043,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -3125,7 +3134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A38"/>
   <sheetViews>
@@ -3133,7 +3142,7 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -3281,7 +3290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A30"/>
   <sheetViews>
@@ -3289,7 +3298,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -3452,7 +3461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A16"/>
   <sheetViews>
@@ -3460,7 +3469,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="8" width="9" style="1"/>
@@ -3555,7 +3564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A17"/>
   <sheetViews>
@@ -3563,7 +3572,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -3661,15 +3670,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -3777,15 +3786,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -3811,79 +3820,88 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="E5" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>164</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
